--- a/Code/Results/Cases/Case_2_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_60/res_line/pl_mw.xlsx
@@ -415,25 +415,25 @@
         <v>3.727796405026027</v>
       </c>
       <c r="C2">
-        <v>1.037663831528477</v>
+        <v>1.037663831528675</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6663615987065441</v>
+        <v>0.6663615987066009</v>
       </c>
       <c r="F2">
-        <v>2.444842264559384</v>
+        <v>2.444842264559355</v>
       </c>
       <c r="G2">
-        <v>1.294620564716467</v>
+        <v>1.294620564716482</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2037107587937363</v>
+        <v>0.2037107587937506</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -453,13 +453,13 @@
         <v>3.210603879261669</v>
       </c>
       <c r="C3">
-        <v>0.8973748536984658</v>
+        <v>0.8973748536987216</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.5749152832585551</v>
+        <v>0.5749152832585978</v>
       </c>
       <c r="F3">
         <v>2.103205921971224</v>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1785962897849984</v>
+        <v>0.1785962897850304</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.898021475918256</v>
+        <v>2.89802147591837</v>
       </c>
       <c r="C4">
-        <v>0.8124646367418507</v>
+        <v>0.812464636741538</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5196074747032995</v>
+        <v>0.5196074747033137</v>
       </c>
       <c r="F4">
         <v>1.899233869291649</v>
       </c>
       <c r="G4">
-        <v>1.049691532271794</v>
+        <v>1.04969153227178</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1641626097334843</v>
+        <v>0.164162609733463</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.771679422624857</v>
+        <v>2.771679422624914</v>
       </c>
       <c r="C5">
-        <v>0.7781125592564422</v>
+        <v>0.7781125592568117</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4972417833973282</v>
+        <v>0.4972417833973353</v>
       </c>
       <c r="F5">
-        <v>1.817368544158725</v>
+        <v>1.817368544158739</v>
       </c>
       <c r="G5">
         <v>1.014177281657808</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1584970311626499</v>
+        <v>0.1584970311626748</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4935373554477067</v>
+        <v>0.4935373554477138</v>
       </c>
       <c r="F6">
         <v>1.803845140532331</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.157568463778837</v>
+        <v>0.1575684637788193</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.896313646442593</v>
+        <v>2.896313646442536</v>
       </c>
       <c r="C7">
-        <v>0.8120004158440111</v>
+        <v>0.8120004158442384</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.5193051920451666</v>
+        <v>0.5193051920451381</v>
       </c>
       <c r="F7">
-        <v>1.898124975965018</v>
+        <v>1.898124975965047</v>
       </c>
       <c r="G7">
-        <v>1.049208125345245</v>
+        <v>1.04920812534526</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1640853656279795</v>
+        <v>0.1640853656279653</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.548299703765338</v>
+        <v>3.548299703765394</v>
       </c>
       <c r="C8">
-        <v>0.9889995636066828</v>
+        <v>0.9889995636068818</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.634631760104277</v>
+        <v>0.6346317601042841</v>
       </c>
       <c r="F8">
-        <v>2.325715182884707</v>
+        <v>2.325715182884736</v>
       </c>
       <c r="G8">
-        <v>1.240013441829589</v>
+        <v>1.240013441829575</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -681,25 +681,25 @@
         <v>4.877370194822049</v>
       </c>
       <c r="C9">
-        <v>1.348916850588523</v>
+        <v>1.348916850588694</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.8694665372072166</v>
+        <v>0.8694665372072308</v>
       </c>
       <c r="F9">
         <v>3.220565802475818</v>
       </c>
       <c r="G9">
-        <v>1.663363796106736</v>
+        <v>1.663363796106708</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2645975989251994</v>
+        <v>0.2645975989252136</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.902669194099531</v>
+        <v>5.902669194099417</v>
       </c>
       <c r="C10">
-        <v>1.6262239794126</v>
+        <v>1.626223979412828</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.05058811586882</v>
+        <v>1.050588115868749</v>
       </c>
       <c r="F10">
-        <v>3.929176214406027</v>
+        <v>3.929176214406056</v>
       </c>
       <c r="G10">
-        <v>2.017469212793742</v>
+        <v>2.017469212793756</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3243852565502863</v>
+        <v>0.3243852565503005</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -757,25 +757,25 @@
         <v>6.384649012087209</v>
       </c>
       <c r="C11">
-        <v>1.756572634234715</v>
+        <v>1.756572634234885</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.135760546312085</v>
+        <v>1.135760546312042</v>
       </c>
       <c r="F11">
-        <v>4.267232068006592</v>
+        <v>4.267232068006564</v>
       </c>
       <c r="G11">
-        <v>2.191503993567522</v>
+        <v>2.191503993567494</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3542043368415548</v>
+        <v>0.3542043368415264</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.569904285030304</v>
+        <v>6.569904285030248</v>
       </c>
       <c r="C12">
-        <v>1.806679887450969</v>
+        <v>1.806679887450912</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.168506269698483</v>
+        <v>1.168506269698511</v>
       </c>
       <c r="F12">
-        <v>4.397969166863902</v>
+        <v>4.397969166863874</v>
       </c>
       <c r="G12">
-        <v>2.259636640630873</v>
+        <v>2.259636640630887</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3659532350736043</v>
+        <v>0.3659532350735759</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.529875390062728</v>
+        <v>6.529875390062671</v>
       </c>
       <c r="C13">
-        <v>1.795852593288203</v>
+        <v>1.795852593287691</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.16143029971272</v>
+        <v>1.161430299712706</v>
       </c>
       <c r="F13">
-        <v>4.369683189776993</v>
+        <v>4.369683189777021</v>
       </c>
       <c r="G13">
-        <v>2.244857304092633</v>
+        <v>2.244857304092662</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.399831955330683</v>
+        <v>6.399831955330512</v>
       </c>
       <c r="C14">
-        <v>1.760679098501441</v>
+        <v>1.760679098501555</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.138444083492871</v>
+        <v>1.138444083492857</v>
       </c>
       <c r="F14">
-        <v>4.277930358404177</v>
+        <v>4.277930358404149</v>
       </c>
       <c r="G14">
-        <v>2.197062275154806</v>
+        <v>2.197062275154778</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3551612482756852</v>
+        <v>0.3551612482756923</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.124431602696063</v>
+        <v>1.124431602696035</v>
       </c>
       <c r="F15">
         <v>4.22209889255538</v>
       </c>
       <c r="G15">
-        <v>2.168088852276526</v>
+        <v>2.16808885227654</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3501762670151081</v>
+        <v>0.3501762670151152</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.871524744422231</v>
+        <v>5.871524744422118</v>
       </c>
       <c r="C16">
-        <v>1.617801535172816</v>
+        <v>1.61780153517293</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -959,13 +959,13 @@
         <v>3.907437329440143</v>
       </c>
       <c r="G16">
-        <v>2.006386100561386</v>
+        <v>2.006386100561372</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3224957490281781</v>
+        <v>0.3224957490281568</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.600378541457928</v>
+        <v>5.600378541457872</v>
       </c>
       <c r="C17">
-        <v>1.544474684295494</v>
+        <v>1.544474684295665</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.9971818792687799</v>
+        <v>0.9971818792688367</v>
       </c>
       <c r="F17">
-        <v>3.718730418753694</v>
+        <v>3.718730418753665</v>
       </c>
       <c r="G17">
-        <v>1.910744451042063</v>
+        <v>1.910744451042092</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3062382315558949</v>
+        <v>0.3062382315558807</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.445852771585635</v>
+        <v>5.445852771585521</v>
       </c>
       <c r="C18">
-        <v>1.502684398846043</v>
+        <v>1.502684398845588</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.9698841614231526</v>
+        <v>0.9698841614231668</v>
       </c>
       <c r="F18">
-        <v>3.611637321582691</v>
+        <v>3.611637321582663</v>
       </c>
       <c r="G18">
-        <v>1.856927348921559</v>
+        <v>1.856927348921545</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2971284512231662</v>
+        <v>0.2971284512231733</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.393764818063119</v>
+        <v>5.393764818063289</v>
       </c>
       <c r="C19">
-        <v>1.488597179357043</v>
+        <v>1.48859717935693</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.9606828775070966</v>
+        <v>0.9606828775070824</v>
       </c>
       <c r="F19">
-        <v>3.575612973423205</v>
+        <v>3.575612973423233</v>
       </c>
       <c r="G19">
-        <v>1.838900653880117</v>
+        <v>1.838900653880145</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2940832573782473</v>
+        <v>0.2940832573782259</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.629091134055329</v>
+        <v>5.629091134055614</v>
       </c>
       <c r="C20">
-        <v>1.552239615400083</v>
+        <v>1.552239615399685</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.002254266829567</v>
+        <v>1.002254266829482</v>
       </c>
       <c r="F20">
         <v>3.738665820314083</v>
       </c>
       <c r="G20">
-        <v>1.920799703156987</v>
+        <v>1.920799703157016</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3079433874247357</v>
+        <v>0.3079433874247641</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.437950040032092</v>
+        <v>6.437950040032035</v>
       </c>
       <c r="C21">
         <v>1.770988854776249</v>
@@ -1143,10 +1143,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.14518148743899</v>
+        <v>1.145181487438961</v>
       </c>
       <c r="F21">
-        <v>4.304802373034249</v>
+        <v>4.304802373034278</v>
       </c>
       <c r="G21">
         <v>2.211037055534177</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3575683735864743</v>
+        <v>0.3575683735864672</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.982861453348903</v>
+        <v>6.982861453348789</v>
       </c>
       <c r="C22">
-        <v>1.918396108979607</v>
+        <v>1.918396108979834</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.24152198037639</v>
+        <v>1.241521980376405</v>
       </c>
       <c r="F22">
-        <v>4.690956156161207</v>
+        <v>4.690956156161178</v>
       </c>
       <c r="G22">
-        <v>2.413942790945782</v>
+        <v>2.413942790945754</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3927151258383859</v>
+        <v>0.3927151258383645</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.690351504675789</v>
+        <v>6.690351504675732</v>
       </c>
       <c r="C23">
-        <v>1.839260834772688</v>
+        <v>1.839260834772858</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.189799542021717</v>
+        <v>1.189799542021746</v>
       </c>
       <c r="F23">
-        <v>4.483204153520006</v>
+        <v>4.483204153519978</v>
       </c>
       <c r="G23">
-        <v>2.304298340531474</v>
+        <v>2.30429834053146</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3736773483066145</v>
+        <v>0.3736773483066571</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1251,16 +1251,16 @@
         <v>5.616105972046114</v>
       </c>
       <c r="C24">
-        <v>1.548727959509677</v>
+        <v>1.54872795950979</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.9999602913702859</v>
+        <v>0.9999602913702716</v>
       </c>
       <c r="F24">
-        <v>3.729648707746975</v>
+        <v>3.729648707747003</v>
       </c>
       <c r="G24">
         <v>1.916250110663754</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3071717544314865</v>
+        <v>0.3071717544314652</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.510714821804697</v>
+        <v>4.510714821804925</v>
       </c>
       <c r="C25">
-        <v>1.249702342513615</v>
+        <v>1.249702342513842</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.8046988037253726</v>
+        <v>0.804698803725401</v>
       </c>
       <c r="F25">
         <v>2.970865560734836</v>
       </c>
       <c r="G25">
-        <v>1.542339125442368</v>
+        <v>1.542339125442382</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2444509071595178</v>
+        <v>0.2444509071595249</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_60/res_line/pl_mw.xlsx
@@ -415,25 +415,25 @@
         <v>3.727796405026027</v>
       </c>
       <c r="C2">
-        <v>1.037663831528675</v>
+        <v>1.037663831528477</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6663615987066009</v>
+        <v>0.6663615987065441</v>
       </c>
       <c r="F2">
-        <v>2.444842264559355</v>
+        <v>2.444842264559384</v>
       </c>
       <c r="G2">
-        <v>1.294620564716482</v>
+        <v>1.294620564716467</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2037107587937506</v>
+        <v>0.2037107587937363</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -453,13 +453,13 @@
         <v>3.210603879261669</v>
       </c>
       <c r="C3">
-        <v>0.8973748536987216</v>
+        <v>0.8973748536984658</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.5749152832585978</v>
+        <v>0.5749152832585551</v>
       </c>
       <c r="F3">
         <v>2.103205921971224</v>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1785962897850304</v>
+        <v>0.1785962897849984</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.89802147591837</v>
+        <v>2.898021475918256</v>
       </c>
       <c r="C4">
-        <v>0.812464636741538</v>
+        <v>0.8124646367418507</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5196074747033137</v>
+        <v>0.5196074747032995</v>
       </c>
       <c r="F4">
         <v>1.899233869291649</v>
       </c>
       <c r="G4">
-        <v>1.04969153227178</v>
+        <v>1.049691532271794</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.164162609733463</v>
+        <v>0.1641626097334843</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.771679422624914</v>
+        <v>2.771679422624857</v>
       </c>
       <c r="C5">
-        <v>0.7781125592568117</v>
+        <v>0.7781125592564422</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4972417833973353</v>
+        <v>0.4972417833973282</v>
       </c>
       <c r="F5">
-        <v>1.817368544158739</v>
+        <v>1.817368544158725</v>
       </c>
       <c r="G5">
         <v>1.014177281657808</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1584970311626748</v>
+        <v>0.1584970311626499</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4935373554477138</v>
+        <v>0.4935373554477067</v>
       </c>
       <c r="F6">
         <v>1.803845140532331</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1575684637788193</v>
+        <v>0.157568463778837</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.896313646442536</v>
+        <v>2.896313646442593</v>
       </c>
       <c r="C7">
-        <v>0.8120004158442384</v>
+        <v>0.8120004158440111</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.5193051920451381</v>
+        <v>0.5193051920451666</v>
       </c>
       <c r="F7">
-        <v>1.898124975965047</v>
+        <v>1.898124975965018</v>
       </c>
       <c r="G7">
-        <v>1.04920812534526</v>
+        <v>1.049208125345245</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1640853656279653</v>
+        <v>0.1640853656279795</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.548299703765394</v>
+        <v>3.548299703765338</v>
       </c>
       <c r="C8">
-        <v>0.9889995636068818</v>
+        <v>0.9889995636066828</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.6346317601042841</v>
+        <v>0.634631760104277</v>
       </c>
       <c r="F8">
-        <v>2.325715182884736</v>
+        <v>2.325715182884707</v>
       </c>
       <c r="G8">
-        <v>1.240013441829575</v>
+        <v>1.240013441829589</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -681,25 +681,25 @@
         <v>4.877370194822049</v>
       </c>
       <c r="C9">
-        <v>1.348916850588694</v>
+        <v>1.348916850588523</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.8694665372072308</v>
+        <v>0.8694665372072166</v>
       </c>
       <c r="F9">
         <v>3.220565802475818</v>
       </c>
       <c r="G9">
-        <v>1.663363796106708</v>
+        <v>1.663363796106736</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2645975989252136</v>
+        <v>0.2645975989251994</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.902669194099417</v>
+        <v>5.902669194099531</v>
       </c>
       <c r="C10">
-        <v>1.626223979412828</v>
+        <v>1.6262239794126</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.050588115868749</v>
+        <v>1.05058811586882</v>
       </c>
       <c r="F10">
-        <v>3.929176214406056</v>
+        <v>3.929176214406027</v>
       </c>
       <c r="G10">
-        <v>2.017469212793756</v>
+        <v>2.017469212793742</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3243852565503005</v>
+        <v>0.3243852565502863</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -757,25 +757,25 @@
         <v>6.384649012087209</v>
       </c>
       <c r="C11">
-        <v>1.756572634234885</v>
+        <v>1.756572634234715</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.135760546312042</v>
+        <v>1.135760546312085</v>
       </c>
       <c r="F11">
-        <v>4.267232068006564</v>
+        <v>4.267232068006592</v>
       </c>
       <c r="G11">
-        <v>2.191503993567494</v>
+        <v>2.191503993567522</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3542043368415264</v>
+        <v>0.3542043368415548</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.569904285030248</v>
+        <v>6.569904285030304</v>
       </c>
       <c r="C12">
-        <v>1.806679887450912</v>
+        <v>1.806679887450969</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.168506269698511</v>
+        <v>1.168506269698483</v>
       </c>
       <c r="F12">
-        <v>4.397969166863874</v>
+        <v>4.397969166863902</v>
       </c>
       <c r="G12">
-        <v>2.259636640630887</v>
+        <v>2.259636640630873</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3659532350735759</v>
+        <v>0.3659532350736043</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.529875390062671</v>
+        <v>6.529875390062728</v>
       </c>
       <c r="C13">
-        <v>1.795852593287691</v>
+        <v>1.795852593288203</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.161430299712706</v>
+        <v>1.16143029971272</v>
       </c>
       <c r="F13">
-        <v>4.369683189777021</v>
+        <v>4.369683189776993</v>
       </c>
       <c r="G13">
-        <v>2.244857304092662</v>
+        <v>2.244857304092633</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.399831955330512</v>
+        <v>6.399831955330683</v>
       </c>
       <c r="C14">
-        <v>1.760679098501555</v>
+        <v>1.760679098501441</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.138444083492857</v>
+        <v>1.138444083492871</v>
       </c>
       <c r="F14">
-        <v>4.277930358404149</v>
+        <v>4.277930358404177</v>
       </c>
       <c r="G14">
-        <v>2.197062275154778</v>
+        <v>2.197062275154806</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3551612482756923</v>
+        <v>0.3551612482756852</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.124431602696035</v>
+        <v>1.124431602696063</v>
       </c>
       <c r="F15">
         <v>4.22209889255538</v>
       </c>
       <c r="G15">
-        <v>2.16808885227654</v>
+        <v>2.168088852276526</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3501762670151152</v>
+        <v>0.3501762670151081</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.871524744422118</v>
+        <v>5.871524744422231</v>
       </c>
       <c r="C16">
-        <v>1.61780153517293</v>
+        <v>1.617801535172816</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -959,13 +959,13 @@
         <v>3.907437329440143</v>
       </c>
       <c r="G16">
-        <v>2.006386100561372</v>
+        <v>2.006386100561386</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3224957490281568</v>
+        <v>0.3224957490281781</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.600378541457872</v>
+        <v>5.600378541457928</v>
       </c>
       <c r="C17">
-        <v>1.544474684295665</v>
+        <v>1.544474684295494</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.9971818792688367</v>
+        <v>0.9971818792687799</v>
       </c>
       <c r="F17">
-        <v>3.718730418753665</v>
+        <v>3.718730418753694</v>
       </c>
       <c r="G17">
-        <v>1.910744451042092</v>
+        <v>1.910744451042063</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3062382315558807</v>
+        <v>0.3062382315558949</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.445852771585521</v>
+        <v>5.445852771585635</v>
       </c>
       <c r="C18">
-        <v>1.502684398845588</v>
+        <v>1.502684398846043</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.9698841614231668</v>
+        <v>0.9698841614231526</v>
       </c>
       <c r="F18">
-        <v>3.611637321582663</v>
+        <v>3.611637321582691</v>
       </c>
       <c r="G18">
-        <v>1.856927348921545</v>
+        <v>1.856927348921559</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2971284512231733</v>
+        <v>0.2971284512231662</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.393764818063289</v>
+        <v>5.393764818063119</v>
       </c>
       <c r="C19">
-        <v>1.48859717935693</v>
+        <v>1.488597179357043</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.9606828775070824</v>
+        <v>0.9606828775070966</v>
       </c>
       <c r="F19">
-        <v>3.575612973423233</v>
+        <v>3.575612973423205</v>
       </c>
       <c r="G19">
-        <v>1.838900653880145</v>
+        <v>1.838900653880117</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2940832573782259</v>
+        <v>0.2940832573782473</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.629091134055614</v>
+        <v>5.629091134055329</v>
       </c>
       <c r="C20">
-        <v>1.552239615399685</v>
+        <v>1.552239615400083</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.002254266829482</v>
+        <v>1.002254266829567</v>
       </c>
       <c r="F20">
         <v>3.738665820314083</v>
       </c>
       <c r="G20">
-        <v>1.920799703157016</v>
+        <v>1.920799703156987</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3079433874247641</v>
+        <v>0.3079433874247357</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.437950040032035</v>
+        <v>6.437950040032092</v>
       </c>
       <c r="C21">
         <v>1.770988854776249</v>
@@ -1143,10 +1143,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.145181487438961</v>
+        <v>1.14518148743899</v>
       </c>
       <c r="F21">
-        <v>4.304802373034278</v>
+        <v>4.304802373034249</v>
       </c>
       <c r="G21">
         <v>2.211037055534177</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3575683735864672</v>
+        <v>0.3575683735864743</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.982861453348789</v>
+        <v>6.982861453348903</v>
       </c>
       <c r="C22">
-        <v>1.918396108979834</v>
+        <v>1.918396108979607</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.241521980376405</v>
+        <v>1.24152198037639</v>
       </c>
       <c r="F22">
-        <v>4.690956156161178</v>
+        <v>4.690956156161207</v>
       </c>
       <c r="G22">
-        <v>2.413942790945754</v>
+        <v>2.413942790945782</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3927151258383645</v>
+        <v>0.3927151258383859</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.690351504675732</v>
+        <v>6.690351504675789</v>
       </c>
       <c r="C23">
-        <v>1.839260834772858</v>
+        <v>1.839260834772688</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.189799542021746</v>
+        <v>1.189799542021717</v>
       </c>
       <c r="F23">
-        <v>4.483204153519978</v>
+        <v>4.483204153520006</v>
       </c>
       <c r="G23">
-        <v>2.30429834053146</v>
+        <v>2.304298340531474</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3736773483066571</v>
+        <v>0.3736773483066145</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1251,16 +1251,16 @@
         <v>5.616105972046114</v>
       </c>
       <c r="C24">
-        <v>1.54872795950979</v>
+        <v>1.548727959509677</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.9999602913702716</v>
+        <v>0.9999602913702859</v>
       </c>
       <c r="F24">
-        <v>3.729648707747003</v>
+        <v>3.729648707746975</v>
       </c>
       <c r="G24">
         <v>1.916250110663754</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3071717544314652</v>
+        <v>0.3071717544314865</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.510714821804925</v>
+        <v>4.510714821804697</v>
       </c>
       <c r="C25">
-        <v>1.249702342513842</v>
+        <v>1.249702342513615</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.804698803725401</v>
+        <v>0.8046988037253726</v>
       </c>
       <c r="F25">
         <v>2.970865560734836</v>
       </c>
       <c r="G25">
-        <v>1.542339125442382</v>
+        <v>1.542339125442368</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2444509071595249</v>
+        <v>0.2444509071595178</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_60/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,37 +406,40 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.727796405026027</v>
+        <v>3.727511581140391</v>
       </c>
       <c r="C2">
-        <v>1.037663831528477</v>
+        <v>1.037528196741022</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6663615987065441</v>
+        <v>0.6674035078837761</v>
       </c>
       <c r="F2">
-        <v>2.444842264559384</v>
+        <v>2.442581652913532</v>
       </c>
       <c r="G2">
-        <v>1.294620564716467</v>
+        <v>0.4215102303267599</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.8720080512569979</v>
       </c>
       <c r="I2">
-        <v>0.2037107587937363</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2029760309053437</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -444,37 +447,40 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.210603879261669</v>
+        <v>3.210425358735279</v>
       </c>
       <c r="C3">
-        <v>0.8973748536984658</v>
+        <v>0.8972851366785903</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.5749152832585551</v>
+        <v>0.5758229329122813</v>
       </c>
       <c r="F3">
-        <v>2.103205921971224</v>
+        <v>2.101251696202752</v>
       </c>
       <c r="G3">
-        <v>1.1396562222005</v>
+        <v>0.3665121960724349</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.7727910648175254</v>
       </c>
       <c r="I3">
-        <v>0.1785962897849984</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1779553850027114</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -482,37 +488,40 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.898021475918256</v>
+        <v>2.897897840185294</v>
       </c>
       <c r="C4">
-        <v>0.8124646367418507</v>
+        <v>0.8123999540229647</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5196074747032995</v>
+        <v>0.5204329431563224</v>
       </c>
       <c r="F4">
-        <v>1.899233869291649</v>
+        <v>1.897461707833187</v>
       </c>
       <c r="G4">
-        <v>1.049691532271794</v>
+        <v>0.3344345815020375</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.7153502702491181</v>
       </c>
       <c r="I4">
-        <v>0.1641626097334843</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1635773544541976</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -520,37 +529,40 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.771679422624857</v>
+        <v>2.77157593348619</v>
       </c>
       <c r="C5">
-        <v>0.7781125592564422</v>
+        <v>0.7780574119063317</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4972417833973282</v>
+        <v>0.4980338060727831</v>
       </c>
       <c r="F5">
-        <v>1.817368544158725</v>
+        <v>1.815669337549508</v>
       </c>
       <c r="G5">
-        <v>1.014177281657808</v>
+        <v>0.3217349555013271</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.6927146130091018</v>
       </c>
       <c r="I5">
-        <v>0.1584970311626499</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1579340462253747</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -558,37 +570,40 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.750757288405907</v>
+        <v>2.750657020992833</v>
       </c>
       <c r="C6">
-        <v>0.7724218849865281</v>
+        <v>0.772368284148456</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4935373554477067</v>
+        <v>0.4943238265267667</v>
       </c>
       <c r="F6">
-        <v>1.803845140532331</v>
+        <v>1.802157980843887</v>
       </c>
       <c r="G6">
-        <v>1.008345175084088</v>
+        <v>0.3196472269016795</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.6889997930779117</v>
       </c>
       <c r="I6">
-        <v>0.157568463778837</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1570091544909786</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -596,37 +611,40 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.896313646442593</v>
+        <v>2.89619029092097</v>
       </c>
       <c r="C7">
-        <v>0.8120004158440111</v>
+        <v>0.8119358642642283</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.5193051920451666</v>
+        <v>0.5201302092864708</v>
       </c>
       <c r="F7">
-        <v>1.898124975965018</v>
+        <v>1.896353803065196</v>
       </c>
       <c r="G7">
-        <v>1.049208125345245</v>
+        <v>0.3342618688163697</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.7150420006382916</v>
       </c>
       <c r="I7">
-        <v>0.1640853656279795</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1635004122391415</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -634,37 +652,40 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.548299703765338</v>
+        <v>3.548053943126547</v>
       </c>
       <c r="C8">
-        <v>0.9889995636066828</v>
+        <v>0.9888805000154548</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.634631760104277</v>
+        <v>0.6356273114989506</v>
       </c>
       <c r="F8">
-        <v>2.325715182884707</v>
+        <v>2.323561655809982</v>
       </c>
       <c r="G8">
-        <v>1.240013441829589</v>
+        <v>0.4021621339661436</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.8370106260144041</v>
       </c>
       <c r="I8">
-        <v>0.1948261469899677</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1941242308154578</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -672,37 +693,40 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.877370194822049</v>
+        <v>4.876780764027274</v>
       </c>
       <c r="C9">
-        <v>1.348916850588523</v>
+        <v>1.348658896181064</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.8694665372072166</v>
+        <v>0.8707994269211952</v>
       </c>
       <c r="F9">
-        <v>3.220565802475818</v>
+        <v>3.217598876993748</v>
       </c>
       <c r="G9">
-        <v>1.663363796106736</v>
+        <v>0.551463531578932</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.109083297842986</v>
       </c>
       <c r="I9">
-        <v>0.2645975989251994</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.263646195366789</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -710,37 +734,40 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.902669194099531</v>
+        <v>5.901727284688775</v>
       </c>
       <c r="C10">
-        <v>1.6262239794126</v>
+        <v>1.625832492083362</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.05058811586882</v>
+        <v>1.052171755610701</v>
       </c>
       <c r="F10">
-        <v>3.929176214406027</v>
+        <v>3.925545821939011</v>
       </c>
       <c r="G10">
-        <v>2.017469212793742</v>
+        <v>0.6754365411188417</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.337627271064108</v>
       </c>
       <c r="I10">
-        <v>0.3243852565502863</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3232303819912801</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -748,37 +775,40 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.384649012087209</v>
+        <v>6.383514003545429</v>
       </c>
       <c r="C11">
-        <v>1.756572634234715</v>
+        <v>1.756109975087497</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.135760546312085</v>
+        <v>1.137459051572151</v>
       </c>
       <c r="F11">
-        <v>4.267232068006592</v>
+        <v>4.263277379851672</v>
       </c>
       <c r="G11">
-        <v>2.191503993567522</v>
+        <v>0.7361529751805307</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.45017866749518</v>
       </c>
       <c r="I11">
-        <v>0.3542043368415548</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3529501670418398</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -786,37 +816,40 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.569904285030304</v>
+        <v>6.568690221865836</v>
       </c>
       <c r="C12">
-        <v>1.806679887450969</v>
+        <v>1.806188381259005</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.168506269698483</v>
+        <v>1.170248387591201</v>
       </c>
       <c r="F12">
-        <v>4.397969166863902</v>
+        <v>4.393887535762843</v>
       </c>
       <c r="G12">
-        <v>2.259636640630873</v>
+        <v>0.759890639848166</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.494275275548858</v>
       </c>
       <c r="I12">
-        <v>0.3659532350736043</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.364660237521484</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -824,37 +857,40 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.529875390062728</v>
+        <v>6.528678639444763</v>
       </c>
       <c r="C13">
-        <v>1.795852593288203</v>
+        <v>1.7953673915585</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.16143029971272</v>
+        <v>1.163163019846067</v>
       </c>
       <c r="F13">
-        <v>4.369683189776993</v>
+        <v>4.36562909922344</v>
       </c>
       <c r="G13">
-        <v>2.244857304092633</v>
+        <v>0.7547429109624488</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.484708310426271</v>
       </c>
       <c r="I13">
-        <v>0.363401118971602</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3621165430593294</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -862,37 +898,40 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.399831955330683</v>
+        <v>6.398690569934786</v>
       </c>
       <c r="C14">
-        <v>1.760679098501441</v>
+        <v>1.760214106720412</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.138444083492871</v>
+        <v>1.140146174520012</v>
       </c>
       <c r="F14">
-        <v>4.277930358404177</v>
+        <v>4.273965315576362</v>
       </c>
       <c r="G14">
-        <v>2.197062275154806</v>
+        <v>0.7380901466070355</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.453775399743478</v>
       </c>
       <c r="I14">
-        <v>0.3551612482756852</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3539039103947914</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -900,37 +939,40 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.320549890383063</v>
+        <v>6.319441603636278</v>
       </c>
       <c r="C15">
-        <v>1.739236316765641</v>
+        <v>1.738783443781983</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.124431602696063</v>
+        <v>1.126114947349123</v>
       </c>
       <c r="F15">
-        <v>4.22209889255538</v>
+        <v>4.218187824053018</v>
       </c>
       <c r="G15">
-        <v>2.168088852276526</v>
+        <v>0.7279910445857212</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.435028226700453</v>
       </c>
       <c r="I15">
-        <v>0.3501762670151081</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3489354446720583</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -938,37 +980,40 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.871524744422231</v>
+        <v>5.870594697745503</v>
       </c>
       <c r="C16">
-        <v>1.617801535172816</v>
+        <v>1.617414457587813</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.045085391965543</v>
+        <v>1.046661541394414</v>
       </c>
       <c r="F16">
-        <v>3.907437329440143</v>
+        <v>3.903827605748944</v>
       </c>
       <c r="G16">
-        <v>2.006386100561386</v>
+        <v>0.6715656390747711</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.330464163945294</v>
       </c>
       <c r="I16">
-        <v>0.3224957490281781</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3213472074609953</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -976,37 +1021,40 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.600378541457928</v>
+        <v>5.599548671962282</v>
       </c>
       <c r="C17">
-        <v>1.544474684295494</v>
+        <v>1.544125046921693</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.9971818792687799</v>
+        <v>0.9986924766985652</v>
       </c>
       <c r="F17">
-        <v>3.718730418753694</v>
+        <v>3.715299226435462</v>
       </c>
       <c r="G17">
-        <v>1.910744451042063</v>
+        <v>0.6381386509857663</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.268674705212447</v>
       </c>
       <c r="I17">
-        <v>0.3062382315558949</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3051444114896782</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1014,37 +1062,40 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.445852771585635</v>
+        <v>5.445077526804255</v>
       </c>
       <c r="C18">
-        <v>1.502684398846043</v>
+        <v>1.502355343334614</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.9698841614231526</v>
+        <v>0.97135713072214</v>
       </c>
       <c r="F18">
-        <v>3.611637321582691</v>
+        <v>3.608306765549941</v>
       </c>
       <c r="G18">
-        <v>1.856927348921559</v>
+        <v>0.619310355257042</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.233926399941936</v>
       </c>
       <c r="I18">
-        <v>0.2971284512231662</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2960654902167406</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1052,37 +1103,40 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.393764818063119</v>
+        <v>5.393007586420651</v>
       </c>
       <c r="C19">
-        <v>1.488597179357043</v>
+        <v>1.488274939412179</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.9606828775070966</v>
+        <v>0.9621431193350105</v>
       </c>
       <c r="F19">
-        <v>3.575612973423205</v>
+        <v>3.57231616299751</v>
       </c>
       <c r="G19">
-        <v>1.838900653880117</v>
+        <v>0.6130003487601954</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.222290485235433</v>
       </c>
       <c r="I19">
-        <v>0.2940832573782473</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2930306459164314</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1090,37 +1144,40 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.629091134055329</v>
+        <v>5.628250918348499</v>
       </c>
       <c r="C20">
-        <v>1.552239615400083</v>
+        <v>1.551886093621533</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.002254266829567</v>
+        <v>1.003771834505855</v>
       </c>
       <c r="F20">
-        <v>3.738665820314083</v>
+        <v>3.735215841062626</v>
       </c>
       <c r="G20">
-        <v>1.920799703156987</v>
+        <v>0.6416549877377804</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.27516878792089</v>
       </c>
       <c r="I20">
-        <v>0.3079433874247357</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.306843807514241</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1128,37 +1185,40 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.437950040032092</v>
+        <v>6.436792564837845</v>
       </c>
       <c r="C21">
-        <v>1.770988854776249</v>
+        <v>1.770517981962598</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.14518148743899</v>
+        <v>1.14689257190436</v>
       </c>
       <c r="F21">
-        <v>4.304802373034249</v>
+        <v>4.300811295479491</v>
       </c>
       <c r="G21">
-        <v>2.211037055534177</v>
+        <v>0.7429601218474176</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.462818942518268</v>
       </c>
       <c r="I21">
-        <v>0.3575683735864743</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3563030709166384</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1166,37 +1226,40 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.982861453348903</v>
+        <v>6.981461237888993</v>
       </c>
       <c r="C22">
-        <v>1.918396108979607</v>
+        <v>1.917837225996607</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.24152198037639</v>
+        <v>1.24336020148111</v>
       </c>
       <c r="F22">
-        <v>4.690956156161207</v>
+        <v>4.686586704495653</v>
       </c>
       <c r="G22">
-        <v>2.413942790945782</v>
+        <v>0.8135910324421616</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.594208536744134</v>
       </c>
       <c r="I22">
-        <v>0.3927151258383859</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3913341913615938</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1204,37 +1267,40 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.690351504675789</v>
+        <v>6.689084574176093</v>
       </c>
       <c r="C23">
-        <v>1.839260834772688</v>
+        <v>1.838750119039275</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.189799542021717</v>
+        <v>1.191569851098279</v>
       </c>
       <c r="F23">
-        <v>4.483204153520006</v>
+        <v>4.479039276294486</v>
       </c>
       <c r="G23">
-        <v>2.304298340531474</v>
+        <v>0.7754418351293282</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.523190695197712</v>
       </c>
       <c r="I23">
-        <v>0.3736773483066145</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3723589023216149</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1242,37 +1308,40 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.616105972046114</v>
+        <v>5.615270443019767</v>
       </c>
       <c r="C24">
-        <v>1.548727959509677</v>
+        <v>1.548376196779486</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.9999602913702859</v>
+        <v>1.001474707616552</v>
       </c>
       <c r="F24">
-        <v>3.729648707746975</v>
+        <v>3.726207228243453</v>
       </c>
       <c r="G24">
-        <v>1.916250110663754</v>
+        <v>0.6400640482960114</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.272230415911437</v>
       </c>
       <c r="I24">
-        <v>0.3071717544314865</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3060747803998751</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1280,42 +1349,48 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.510714821804697</v>
+        <v>4.510232797714878</v>
       </c>
       <c r="C25">
-        <v>1.249702342513615</v>
+        <v>1.249486475601884</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.8046988037253726</v>
+        <v>0.8059399964057548</v>
       </c>
       <c r="F25">
-        <v>2.970865560734836</v>
+        <v>2.968127943390812</v>
       </c>
       <c r="G25">
-        <v>1.542339125442368</v>
+        <v>0.5089270229703402</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.031149482014669</v>
       </c>
       <c r="I25">
-        <v>0.2444509071595178</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2435698711858407</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_60/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.727511581140391</v>
+        <v>3.364258490435191</v>
       </c>
       <c r="C2">
-        <v>1.037528196741022</v>
+        <v>0.830624412911277</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6674035078837761</v>
+        <v>0.07149294522469773</v>
       </c>
       <c r="F2">
-        <v>2.442581652913532</v>
+        <v>6.886674237876889</v>
       </c>
       <c r="G2">
-        <v>0.4215102303267599</v>
+        <v>0.0008238348034961263</v>
       </c>
       <c r="H2">
-        <v>0.8720080512569979</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2029760309053437</v>
+        <v>0.7327071110453716</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.003111002486001269</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.210425358735279</v>
+        <v>2.931843303932737</v>
       </c>
       <c r="C3">
-        <v>0.8972851366785903</v>
+        <v>0.7097033424584254</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.5758229329122813</v>
+        <v>0.06169176230216067</v>
       </c>
       <c r="F3">
-        <v>2.101251696202752</v>
+        <v>6.155552378147917</v>
       </c>
       <c r="G3">
-        <v>0.3665121960724349</v>
+        <v>0.0008368960104036466</v>
       </c>
       <c r="H3">
-        <v>0.7727910648175254</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1779553850027114</v>
+        <v>0.6567250829438791</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.003839488147296066</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.897897840185294</v>
+        <v>2.676015939049989</v>
       </c>
       <c r="C4">
-        <v>0.8123999540229647</v>
+        <v>0.6375412240211062</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5204329431563224</v>
+        <v>0.05583769614593237</v>
       </c>
       <c r="F4">
-        <v>1.897461707833187</v>
+        <v>5.719638616958633</v>
       </c>
       <c r="G4">
-        <v>0.3344345815020375</v>
+        <v>0.0008450616599634762</v>
       </c>
       <c r="H4">
-        <v>0.7153502702491181</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1635773544541976</v>
+        <v>0.6113383639009271</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.004598407086145784</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.77157593348619</v>
+        <v>2.573884629555153</v>
       </c>
       <c r="C5">
-        <v>0.7780574119063317</v>
+        <v>0.6085746361275142</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4980338060727831</v>
+        <v>0.05348647680862229</v>
       </c>
       <c r="F5">
-        <v>1.815669337549508</v>
+        <v>5.544793023637823</v>
       </c>
       <c r="G5">
-        <v>0.3217349555013271</v>
+        <v>0.0008484304690913544</v>
       </c>
       <c r="H5">
-        <v>0.6927146130091018</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1579340462253747</v>
+        <v>0.5931082969080563</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.004979409559350501</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.750657020992833</v>
+        <v>2.557045429830112</v>
       </c>
       <c r="C6">
-        <v>0.772368284148456</v>
+        <v>0.6037890718952212</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4943238265267667</v>
+        <v>0.05309794845494764</v>
       </c>
       <c r="F6">
-        <v>1.802157980843887</v>
+        <v>5.515915840395905</v>
       </c>
       <c r="G6">
-        <v>0.3196472269016795</v>
+        <v>0.0008489924709102907</v>
       </c>
       <c r="H6">
-        <v>0.6889997930779117</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1570091544909786</v>
+        <v>0.5900957991269138</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.00504683046203791</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.89619029092097</v>
+        <v>2.674630361326194</v>
       </c>
       <c r="C7">
-        <v>0.8119358642642283</v>
+        <v>0.6371488922706021</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.5201302092864708</v>
+        <v>0.05580585613939348</v>
       </c>
       <c r="F7">
-        <v>1.896353803065196</v>
+        <v>5.717269869437587</v>
       </c>
       <c r="G7">
-        <v>0.3342618688163697</v>
+        <v>0.0008451069203467484</v>
       </c>
       <c r="H7">
-        <v>0.7150420006382916</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1635004122391415</v>
+        <v>0.6110914980548188</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.004603263069162367</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.548053943126547</v>
+        <v>3.212952205303111</v>
       </c>
       <c r="C8">
-        <v>0.9888805000154548</v>
+        <v>0.7884443787812927</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.6356273114989506</v>
+        <v>0.06807508956966046</v>
       </c>
       <c r="F8">
-        <v>2.323561655809982</v>
+        <v>6.63158126186957</v>
       </c>
       <c r="G8">
-        <v>0.4021621339661436</v>
+        <v>0.0008283108964596085</v>
       </c>
       <c r="H8">
-        <v>0.8370106260144041</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1941242308154578</v>
+        <v>0.7062116477476792</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.003293224698968089</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.876780764027274</v>
+        <v>4.361924435709909</v>
       </c>
       <c r="C9">
-        <v>1.348658896181064</v>
+        <v>1.106110781715699</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.8707994269211952</v>
+        <v>0.09379549327869086</v>
       </c>
       <c r="F9">
-        <v>3.217598876993748</v>
+        <v>8.552600199888559</v>
       </c>
       <c r="G9">
-        <v>0.551463531578932</v>
+        <v>0.0007962955660384802</v>
       </c>
       <c r="H9">
-        <v>1.109083297842986</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.263646195366789</v>
+        <v>0.9055748293857562</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.003552312815317649</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.901727284688775</v>
+        <v>5.290766511855338</v>
       </c>
       <c r="C10">
-        <v>1.625832492083362</v>
+        <v>1.359768666616276</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.052171755610701</v>
+        <v>0.1143061892478201</v>
       </c>
       <c r="F10">
-        <v>3.925545821939011</v>
+        <v>10.0835286373642</v>
       </c>
       <c r="G10">
-        <v>0.6754365411188417</v>
+        <v>0.0007729411311509136</v>
       </c>
       <c r="H10">
-        <v>1.337627271064108</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3232303819912801</v>
+        <v>1.064509285908912</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.006075340195721424</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.383514003545429</v>
+        <v>5.739691319069152</v>
       </c>
       <c r="C11">
-        <v>1.756109975087497</v>
+        <v>1.481720185568463</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.137459051572151</v>
+        <v>0.1241591979353736</v>
       </c>
       <c r="F11">
-        <v>4.263277379851672</v>
+        <v>10.81771129569728</v>
       </c>
       <c r="G11">
-        <v>0.7361529751805307</v>
+        <v>0.0007622408548617005</v>
       </c>
       <c r="H11">
-        <v>1.45017866749518</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3529501670418398</v>
+        <v>1.140837596131718</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.007908821121377585</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.568690221865836</v>
+        <v>5.914334031471412</v>
       </c>
       <c r="C12">
-        <v>1.806188381259005</v>
+        <v>1.529074339904014</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.170248387591201</v>
+        <v>0.1279836851850966</v>
       </c>
       <c r="F12">
-        <v>4.393887535762843</v>
+        <v>11.10239897531659</v>
       </c>
       <c r="G12">
-        <v>0.759890639848166</v>
+        <v>0.0007581661188189679</v>
       </c>
       <c r="H12">
-        <v>1.494275275548858</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.364660237521484</v>
+        <v>1.170460126243114</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.008721250812961046</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.528678639444763</v>
+        <v>5.876499393154575</v>
       </c>
       <c r="C13">
-        <v>1.7953673915585</v>
+        <v>1.518819327587721</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.163163019846067</v>
+        <v>0.127155526239271</v>
       </c>
       <c r="F13">
-        <v>4.36562909922344</v>
+        <v>11.04076711615613</v>
       </c>
       <c r="G13">
-        <v>0.7547429109624488</v>
+        <v>0.0007590449156977819</v>
       </c>
       <c r="H13">
-        <v>1.484708310426271</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3621165430593294</v>
+        <v>1.164045866747188</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.008540663415843142</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.398690569934786</v>
+        <v>5.753960634364375</v>
       </c>
       <c r="C14">
-        <v>1.760214106720412</v>
+        <v>1.485591007069559</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.140146174520012</v>
+        <v>0.1244718505528937</v>
       </c>
       <c r="F14">
-        <v>4.273965315576362</v>
+        <v>10.84099100183499</v>
       </c>
       <c r="G14">
-        <v>0.7380901466070355</v>
+        <v>0.0007619061573687786</v>
       </c>
       <c r="H14">
-        <v>1.453775399743478</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3539039103947914</v>
+        <v>1.143259347544983</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.007973163940535599</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.319441603636278</v>
+        <v>5.679535475296177</v>
       </c>
       <c r="C15">
-        <v>1.738783443781983</v>
+        <v>1.465398294834813</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.126114947349123</v>
+        <v>0.122840791037369</v>
       </c>
       <c r="F15">
-        <v>4.218187824053018</v>
+        <v>10.7195322033877</v>
       </c>
       <c r="G15">
-        <v>0.7279910445857212</v>
+        <v>0.0007636553896078235</v>
       </c>
       <c r="H15">
-        <v>1.435028226700453</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3489354446720583</v>
+        <v>1.130625255200187</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.007641597706077974</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.870594697745503</v>
+        <v>5.262027687341345</v>
       </c>
       <c r="C16">
-        <v>1.617414457587813</v>
+        <v>1.35194940482063</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.046661541394414</v>
+        <v>0.1136742560355906</v>
       </c>
       <c r="F16">
-        <v>3.903827605748944</v>
+        <v>10.03640785606694</v>
       </c>
       <c r="G16">
-        <v>0.6715656390747711</v>
+        <v>0.0007736379327684985</v>
       </c>
       <c r="H16">
-        <v>1.330464163945294</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3213472074609953</v>
+        <v>1.059613354204487</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.0059708827607583</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.599548671962282</v>
+        <v>5.01320742931938</v>
       </c>
       <c r="C17">
-        <v>1.544125046921693</v>
+        <v>1.284181007072391</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.9986924766985652</v>
+        <v>0.108196497734685</v>
       </c>
       <c r="F17">
-        <v>3.715299226435462</v>
+        <v>9.627805841855974</v>
       </c>
       <c r="G17">
-        <v>0.6381386509857663</v>
+        <v>0.0007797347388711786</v>
       </c>
       <c r="H17">
-        <v>1.268674705212447</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3051444114896782</v>
+        <v>1.017171744434023</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.005134099265170278</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.445077526804255</v>
+        <v>4.872516118676913</v>
       </c>
       <c r="C18">
-        <v>1.502355343334614</v>
+        <v>1.245803594007725</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.97135713072214</v>
+        <v>0.1050937318300385</v>
       </c>
       <c r="F18">
-        <v>3.608306765549941</v>
+        <v>9.396254859611702</v>
       </c>
       <c r="G18">
-        <v>0.619310355257042</v>
+        <v>0.0007832351223332757</v>
       </c>
       <c r="H18">
-        <v>1.233926399941936</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2960654902167406</v>
+        <v>0.9931297366202614</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.004715947718713309</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.393007586420651</v>
+        <v>4.825273750487838</v>
       </c>
       <c r="C19">
-        <v>1.488274939412179</v>
+        <v>1.232906706493793</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.9621431193350105</v>
+        <v>0.10405092200347</v>
       </c>
       <c r="F19">
-        <v>3.57231616299751</v>
+        <v>9.318417349231538</v>
       </c>
       <c r="G19">
-        <v>0.6130003487601954</v>
+        <v>0.0007844195235837697</v>
       </c>
       <c r="H19">
-        <v>1.222290485235433</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2930306459164314</v>
+        <v>0.9850491732232172</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.004584690925151236</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.628250918348499</v>
+        <v>5.039438378765169</v>
       </c>
       <c r="C20">
-        <v>1.551886093621533</v>
+        <v>1.29133134308654</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.003771834505855</v>
+        <v>0.1087745379371228</v>
       </c>
       <c r="F20">
-        <v>3.735215841062626</v>
+        <v>9.670935345753946</v>
       </c>
       <c r="G20">
-        <v>0.6416549877377804</v>
+        <v>0.0007790864568345139</v>
       </c>
       <c r="H20">
-        <v>1.27516878792089</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.306843807514241</v>
+        <v>1.021650591070085</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.00521651409770385</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.436792564837845</v>
+        <v>5.789819445566195</v>
       </c>
       <c r="C21">
-        <v>1.770517981962598</v>
+        <v>1.495317014094837</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.14689257190436</v>
+        <v>0.1252574115337417</v>
       </c>
       <c r="F21">
-        <v>4.300811295479491</v>
+        <v>10.89947787147634</v>
       </c>
       <c r="G21">
-        <v>0.7429601218474176</v>
+        <v>0.0007610664666537644</v>
       </c>
       <c r="H21">
-        <v>1.462818942518268</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3563030709166384</v>
+        <v>1.149344082863223</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.008136467076775844</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.981461237888993</v>
+        <v>6.307855605077236</v>
       </c>
       <c r="C22">
-        <v>1.917837225996607</v>
+        <v>1.635623683981578</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.24336020148111</v>
+        <v>0.1365858108814599</v>
       </c>
       <c r="F22">
-        <v>4.686586704495653</v>
+        <v>11.74205924254613</v>
       </c>
       <c r="G22">
-        <v>0.8135910324421616</v>
+        <v>0.0007491490749429452</v>
       </c>
       <c r="H22">
-        <v>1.594208536744134</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3913341913615938</v>
+        <v>1.237076945975588</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.01074615680892066</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.689084574176093</v>
+        <v>6.028508361303921</v>
       </c>
       <c r="C23">
-        <v>1.838750119039275</v>
+        <v>1.560008914661466</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.191569851098279</v>
+        <v>0.130481609007564</v>
       </c>
       <c r="F23">
-        <v>4.479039276294486</v>
+        <v>11.28824427958341</v>
       </c>
       <c r="G23">
-        <v>0.7754418351293282</v>
+        <v>0.0007555270796685079</v>
       </c>
       <c r="H23">
-        <v>1.523190695197712</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3723589023216149</v>
+        <v>1.189806226373577</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.009281380561670716</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.615270443019767</v>
+        <v>5.027572080991206</v>
       </c>
       <c r="C24">
-        <v>1.548376196779486</v>
+        <v>1.288096875228462</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.001474707616552</v>
+        <v>0.1085130625362289</v>
       </c>
       <c r="F24">
-        <v>3.726207228243453</v>
+        <v>9.651426122028141</v>
       </c>
       <c r="G24">
-        <v>0.6400640482960114</v>
+        <v>0.0007793795590811392</v>
       </c>
       <c r="H24">
-        <v>1.272230415911437</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3060747803998751</v>
+        <v>1.019624598775323</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.00517905975914168</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.510232797714878</v>
+        <v>4.038535472708077</v>
       </c>
       <c r="C25">
-        <v>1.249486475601884</v>
+        <v>1.017237135728067</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.8059399964057548</v>
+        <v>0.08660389297492799</v>
       </c>
       <c r="F25">
-        <v>2.968127943390812</v>
+        <v>8.015347627713794</v>
       </c>
       <c r="G25">
-        <v>0.5089270229703402</v>
+        <v>0.000804894567833988</v>
       </c>
       <c r="H25">
-        <v>1.031149482014669</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2435698711858407</v>
+        <v>0.8498371699387377</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.003123819138441064</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_60/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.364258490435191</v>
+        <v>1.735280364276207</v>
       </c>
       <c r="C2">
-        <v>0.830624412911277</v>
+        <v>0.3226657012251053</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.07149294522469773</v>
+        <v>1.356718952140696</v>
       </c>
       <c r="F2">
-        <v>6.886674237876889</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0008238348034961263</v>
+        <v>0.0008101470491843289</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.7327071110453716</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.961942453172981</v>
       </c>
       <c r="L2">
-        <v>0.003111002486001269</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.871159479858548</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.931843303932737</v>
+        <v>1.502008608124783</v>
       </c>
       <c r="C3">
-        <v>0.7097033424584254</v>
+        <v>0.2768731543633294</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06169176230216067</v>
+        <v>1.159172205386184</v>
       </c>
       <c r="F3">
-        <v>6.155552378147917</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0008368960104036466</v>
+        <v>0.0008186228842627198</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6567250829438791</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.694126986437709</v>
       </c>
       <c r="L3">
-        <v>0.003839488147296066</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.850158986557261</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.676015939049989</v>
+        <v>1.3618866705811</v>
       </c>
       <c r="C4">
-        <v>0.6375412240211062</v>
+        <v>0.2494187190609409</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05583769614593237</v>
+        <v>1.041065129984361</v>
       </c>
       <c r="F4">
-        <v>5.719638616958633</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008450616599634762</v>
+        <v>0.0008239335065227709</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.6113383639009271</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.533319210610927</v>
       </c>
       <c r="L4">
-        <v>0.004598407086145784</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.839827851113739</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.573884629555153</v>
+        <v>1.305460679987618</v>
       </c>
       <c r="C5">
-        <v>0.6085746361275142</v>
+        <v>0.2383722305370242</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05348647680862229</v>
+        <v>0.9936070056965605</v>
       </c>
       <c r="F5">
-        <v>5.544793023637823</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008484304690913544</v>
+        <v>0.0008261266532620843</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5931082969080563</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.468574077721343</v>
       </c>
       <c r="L5">
-        <v>0.004979409559350501</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.836209097102554</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.557045429830112</v>
+        <v>1.296129023632574</v>
       </c>
       <c r="C6">
-        <v>0.6037890718952212</v>
+        <v>0.2365458246774352</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05309794845494764</v>
+        <v>0.9857636473359719</v>
       </c>
       <c r="F6">
-        <v>5.515915840395905</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0008489924709102907</v>
+        <v>0.0008264926387431604</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5900957991269138</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.457867128283539</v>
       </c>
       <c r="L6">
-        <v>0.00504683046203791</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.835642457402031</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.674630361326194</v>
+        <v>1.361123090972711</v>
       </c>
       <c r="C7">
-        <v>0.6371488922706021</v>
+        <v>0.2492692010074506</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05580585613939348</v>
+        <v>1.040422535695612</v>
       </c>
       <c r="F7">
-        <v>5.717269869437587</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.0008451069203467484</v>
+        <v>0.0008239629637034914</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.6110914980548188</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.53244301521849</v>
       </c>
       <c r="L7">
-        <v>0.004603263069162367</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.839776719937703</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.212952205303111</v>
+        <v>1.654135569839667</v>
       </c>
       <c r="C8">
-        <v>0.7884443787812927</v>
+        <v>0.3067229598612471</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06807508956966046</v>
+        <v>1.287860181870286</v>
       </c>
       <c r="F8">
-        <v>6.63158126186957</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0008283108964596085</v>
+        <v>0.0008130488631330044</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.7062116477476792</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.868764637053147</v>
       </c>
       <c r="L8">
-        <v>0.003293224698968089</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.863352723768372</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.361924435709909</v>
+        <v>2.258850620654812</v>
       </c>
       <c r="C9">
-        <v>1.106110781715699</v>
+        <v>0.4259413906031853</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.09379549327869086</v>
+        <v>1.805157255537736</v>
       </c>
       <c r="F9">
-        <v>8.552600199888559</v>
+        <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>0.0007962955660384802</v>
+        <v>0.0007923751272560781</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.9055748293857562</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.563668790680254</v>
       </c>
       <c r="L9">
-        <v>0.003552312815317649</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.932643283273435</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.290766511855338</v>
+        <v>2.730291829719761</v>
       </c>
       <c r="C10">
-        <v>1.359768666616276</v>
+        <v>0.5196333644927904</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1143061892478201</v>
+        <v>2.215967131283648</v>
       </c>
       <c r="F10">
-        <v>10.0835286373642</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.0007729411311509136</v>
+        <v>0.0007774441466462339</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.064509285908912</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>3.106376833542839</v>
       </c>
       <c r="L10">
-        <v>0.006075340195721424</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>2.001984594321669</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.739691319069152</v>
+        <v>2.9530313440074</v>
       </c>
       <c r="C11">
-        <v>1.481720185568463</v>
+        <v>0.5641576863098123</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1241591979353736</v>
+        <v>2.412664076320169</v>
       </c>
       <c r="F11">
-        <v>10.81771129569728</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007622408548617005</v>
+        <v>0.0007706574021953875</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.140837596131718</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>3.363118937340175</v>
       </c>
       <c r="L11">
-        <v>0.007908821121377585</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>2.038715639781429</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.914334031471412</v>
+        <v>3.038805902231729</v>
       </c>
       <c r="C12">
-        <v>1.529074339904014</v>
+        <v>0.5813502983454555</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1279836851850966</v>
+        <v>2.488885495401647</v>
       </c>
       <c r="F12">
-        <v>11.10239897531659</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007581661188189679</v>
+        <v>0.0007680831547937243</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.170460126243114</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>3.462047692930014</v>
       </c>
       <c r="L12">
-        <v>0.008721250812961046</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>2.053490299636366</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.876499393154575</v>
+        <v>3.020265080425361</v>
       </c>
       <c r="C13">
-        <v>1.518819327587721</v>
+        <v>0.5776317379071259</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.127155526239271</v>
+        <v>2.472386731541278</v>
       </c>
       <c r="F13">
-        <v>11.04076711615613</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.0007590449156977819</v>
+        <v>0.0007686378441107037</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.164045866747188</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>3.440660600655008</v>
       </c>
       <c r="L13">
-        <v>0.008540663415843142</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>2.050267694121544</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.753960634364375</v>
+        <v>2.960057942692799</v>
       </c>
       <c r="C14">
-        <v>1.485591007069559</v>
+        <v>0.5655651010310123</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1244718505528937</v>
+        <v>2.418897959828115</v>
       </c>
       <c r="F14">
-        <v>10.84099100183499</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007619061573687786</v>
+        <v>0.0007704457345504679</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.143259347544983</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>3.371221841646616</v>
       </c>
       <c r="L14">
-        <v>0.007973163940535599</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>2.039913056680831</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.679535475296177</v>
+        <v>2.923373040762044</v>
       </c>
       <c r="C15">
-        <v>1.465398294834813</v>
+        <v>0.5582191214785155</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.122840791037369</v>
+        <v>2.386371447057343</v>
       </c>
       <c r="F15">
-        <v>10.7195322033877</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0007636553896078235</v>
+        <v>0.0007715524010618591</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.130625255200187</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>3.328920190280257</v>
       </c>
       <c r="L15">
-        <v>0.007641597706077974</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>2.033687145203089</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.262027687341345</v>
+        <v>2.715921260348409</v>
       </c>
       <c r="C16">
-        <v>1.35194940482063</v>
+        <v>0.5167666620449154</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1136742560355906</v>
+        <v>2.203336407013197</v>
       </c>
       <c r="F16">
-        <v>10.03640785606694</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0007736379327684985</v>
+        <v>0.0007778873747571179</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.059613354204487</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>3.089820078663564</v>
       </c>
       <c r="L16">
-        <v>0.0059708827607583</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.999698270781408</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.01320742931938</v>
+        <v>2.590933393003013</v>
       </c>
       <c r="C17">
-        <v>1.284181007072391</v>
+        <v>0.4918628678889547</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.108196497734685</v>
+        <v>2.093776603877942</v>
       </c>
       <c r="F17">
-        <v>9.627805841855974</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007797347388711786</v>
+        <v>0.0007817717491409442</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.017171744434023</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>2.945855553006112</v>
       </c>
       <c r="L17">
-        <v>0.005134099265170278</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.980254606478411</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.872516118676913</v>
+        <v>2.519806545113852</v>
       </c>
       <c r="C18">
-        <v>1.245803594007725</v>
+        <v>0.4777139628957912</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1050937318300385</v>
+        <v>2.031662000014578</v>
       </c>
       <c r="F18">
-        <v>9.396254859611702</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007832351223332757</v>
+        <v>0.0007840067972121227</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.9931297366202614</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.863959315413922</v>
       </c>
       <c r="L18">
-        <v>0.004715947718713309</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.969551149570606</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.825273750487838</v>
+        <v>2.495848640097279</v>
       </c>
       <c r="C19">
-        <v>1.232906706493793</v>
+        <v>0.4729518430961548</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.10405092200347</v>
+        <v>2.010776970901119</v>
       </c>
       <c r="F19">
-        <v>9.318417349231538</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.0007844195235837697</v>
+        <v>0.0007847638332512374</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.9850491732232172</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2.836378673771918</v>
       </c>
       <c r="L19">
-        <v>0.004584690925151236</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.966006270048723</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.039438378765169</v>
+        <v>2.604158017373493</v>
       </c>
       <c r="C20">
-        <v>1.29133134308654</v>
+        <v>0.4944954064241358</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1087745379371228</v>
+        <v>2.105343999202773</v>
       </c>
       <c r="F20">
-        <v>9.670935345753946</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007790864568345139</v>
+        <v>0.0007813581956254446</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.021650591070085</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.961084881387052</v>
       </c>
       <c r="L20">
-        <v>0.00521651409770385</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.982273935832239</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.789819445566195</v>
+        <v>2.977701386262765</v>
       </c>
       <c r="C21">
-        <v>1.495317014094837</v>
+        <v>0.5690998284460704</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1252574115337417</v>
+        <v>2.434558862939383</v>
       </c>
       <c r="F21">
-        <v>10.89947787147634</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007610664666537644</v>
+        <v>0.0007699148734311185</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.149344082863223</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>3.391568836945339</v>
       </c>
       <c r="L21">
-        <v>0.008136467076775844</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>2.042929921231718</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.307855605077236</v>
+        <v>3.230298620399708</v>
       </c>
       <c r="C22">
-        <v>1.635623683981578</v>
+        <v>0.6198300088568089</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1365858108814599</v>
+        <v>2.660043436609413</v>
       </c>
       <c r="F22">
-        <v>11.74205924254613</v>
+        <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>0.0007491490749429452</v>
+        <v>0.0007624081757076197</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.237076945975588</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>3.683032133785787</v>
       </c>
       <c r="L22">
-        <v>0.01074615680892066</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>2.087687921665804</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.028508361303921</v>
+        <v>3.094618419703295</v>
       </c>
       <c r="C23">
-        <v>1.560008914661466</v>
+        <v>0.5925516453163766</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.130481609007564</v>
+        <v>2.538628080549316</v>
       </c>
       <c r="F23">
-        <v>11.28824427958341</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0.0007555270796685079</v>
+        <v>0.0007664190964112389</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.189806226373577</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>3.526437910823518</v>
       </c>
       <c r="L23">
-        <v>0.009281380561670716</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>2.063286439824367</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.027572080991206</v>
+        <v>2.598176907213144</v>
       </c>
       <c r="C24">
-        <v>1.288096875228462</v>
+        <v>0.493304714812183</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1085130625362289</v>
+        <v>2.100111684782021</v>
       </c>
       <c r="F24">
-        <v>9.651426122028141</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0007793795590811392</v>
+        <v>0.000781545157064822</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.019624598775323</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.954197010460888</v>
       </c>
       <c r="L24">
-        <v>0.00517905975914168</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.981359526394016</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.038535472708077</v>
+        <v>2.091201123993699</v>
       </c>
       <c r="C25">
-        <v>1.017237135728067</v>
+        <v>0.3927895682431313</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.08660389297492799</v>
+        <v>1.660735049397175</v>
       </c>
       <c r="F25">
-        <v>8.015347627713794</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.000804894567833988</v>
+        <v>0.0007979075536259488</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.8498371699387377</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2.37088859165749</v>
       </c>
       <c r="L25">
-        <v>0.003123819138441064</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.911015557647289</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_60/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.735280364276207</v>
+        <v>0.8455653270691812</v>
       </c>
       <c r="C2">
-        <v>0.3226657012251053</v>
+        <v>0.1138067830109435</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.356718952140696</v>
+        <v>0.4023791701608559</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.0008101470491843289</v>
+        <v>0.002505011489310402</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.961942453172981</v>
+        <v>0.8820971393460297</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.871159479858548</v>
+        <v>2.496012633392411</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.502008608124783</v>
+        <v>0.7877540871629662</v>
       </c>
       <c r="C3">
-        <v>0.2768731543633294</v>
+        <v>0.1020638087218515</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.159172205386184</v>
+        <v>0.350993645536434</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.0008186228842627198</v>
+        <v>0.002509821168202192</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.694126986437709</v>
+        <v>0.8151190770491894</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.850158986557261</v>
+        <v>2.489705918029273</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.3618866705811</v>
+        <v>0.752784606274929</v>
       </c>
       <c r="C4">
-        <v>0.2494187190609409</v>
+        <v>0.09491267930687286</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.041065129984361</v>
+        <v>0.31956458330896</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.0008239335065227709</v>
+        <v>0.002512923055352573</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.533319210610927</v>
+        <v>0.7745355552673914</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.839827851113739</v>
+        <v>2.486434989935418</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.305460679987618</v>
+        <v>0.7386653712477482</v>
       </c>
       <c r="C5">
-        <v>0.2383722305370242</v>
+        <v>0.09201298625087873</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.9936070056965605</v>
+        <v>0.3067851205023686</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008261266532620843</v>
+        <v>0.002514224638604512</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.468574077721343</v>
+        <v>0.7581317787819728</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.836209097102554</v>
+        <v>2.485252244852759</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.296129023632574</v>
+        <v>0.7363287623576866</v>
       </c>
       <c r="C6">
-        <v>0.2365458246774352</v>
+        <v>0.09153235525431569</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.9857636473359719</v>
+        <v>0.3046647270331277</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0008264926387431604</v>
+        <v>0.002514443036758064</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.457867128283539</v>
+        <v>0.7554160067011537</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.835642457402031</v>
+        <v>2.485064891234003</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.361123090972711</v>
+        <v>0.7525936602635284</v>
       </c>
       <c r="C7">
-        <v>0.2492692010074506</v>
+        <v>0.09487351506280106</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.040422535695612</v>
+        <v>0.3193921243517934</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0008239629637034914</v>
+        <v>0.002512940456804403</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.53244301521849</v>
+        <v>0.774313786595286</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.839776719937703</v>
+        <v>2.486418432351329</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.654135569839667</v>
+        <v>0.8255218130685762</v>
       </c>
       <c r="C8">
-        <v>0.3067229598612471</v>
+        <v>0.1097452853549328</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.287860181870286</v>
+        <v>0.3846346185082723</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.0008130488631330044</v>
+        <v>0.002506639084071565</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.868764637053147</v>
+        <v>0.8588896656511906</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.863352723768372</v>
+        <v>2.493712616039829</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.258850620654812</v>
+        <v>0.9727847057340568</v>
       </c>
       <c r="C9">
-        <v>0.4259413906031853</v>
+        <v>0.1393979721435983</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.805157255537736</v>
+        <v>0.5136616161999541</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0007923751272560781</v>
+        <v>0.00249545571710813</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.563668790680254</v>
+        <v>1.029127440218673</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.932643283273435</v>
+        <v>2.512837816352643</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.730291829719761</v>
+        <v>1.083680973970388</v>
       </c>
       <c r="C10">
-        <v>0.5196333644927904</v>
+        <v>0.1615124048529708</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.215967131283648</v>
+        <v>0.6092958146404612</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0007774441466462339</v>
+        <v>0.002487945671228384</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.106376833542839</v>
+        <v>1.15701323671351</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.001984594321669</v>
+        <v>2.52989962922814</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.9530313440074</v>
+        <v>1.134742391205521</v>
       </c>
       <c r="C11">
-        <v>0.5641576863098123</v>
+        <v>0.1716509825061792</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.412664076320169</v>
+        <v>0.6530232989402549</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0007706574021953875</v>
+        <v>0.002484680589460047</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.363118937340175</v>
+        <v>1.215833789786927</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.038715639781429</v>
+        <v>2.538330952075029</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.038805902231729</v>
+        <v>1.154168164394548</v>
       </c>
       <c r="C12">
-        <v>0.5813502983454555</v>
+        <v>0.1755020196859505</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.488885495401647</v>
+        <v>0.669616883234383</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0007680831547937243</v>
+        <v>0.002483465791578658</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.462047692930014</v>
+        <v>1.238202622527297</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.053490299636366</v>
+        <v>2.541621246478513</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.020265080425361</v>
+        <v>1.149980451242527</v>
       </c>
       <c r="C13">
-        <v>0.5776317379071259</v>
+        <v>0.1746720984668002</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.472386731541278</v>
+        <v>0.6660415580322052</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007686378441107037</v>
+        <v>0.002483726461007427</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.440660600655008</v>
+        <v>1.233380846111345</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.050267694121544</v>
+        <v>2.540908265239892</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.960057942692799</v>
+        <v>1.136338749733682</v>
       </c>
       <c r="C14">
-        <v>0.5655651010310123</v>
+        <v>0.1719675708616535</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.418897959828115</v>
+        <v>0.6543877463517589</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0007704457345504679</v>
+        <v>0.00248458021493216</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.371221841646616</v>
+        <v>1.217672175895586</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.039913056680831</v>
+        <v>2.538599684798015</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.923373040762044</v>
+        <v>1.127994572590239</v>
       </c>
       <c r="C15">
-        <v>0.5582191214785155</v>
+        <v>0.1703125176455558</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.386371447057343</v>
+        <v>0.6472540857301254</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0007715524010618591</v>
+        <v>0.002485105975098247</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.328920190280257</v>
+        <v>1.208062565106104</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.033687145203089</v>
+        <v>2.537198350980418</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.715921260348409</v>
+        <v>1.080356485250036</v>
       </c>
       <c r="C16">
-        <v>0.5167666620449154</v>
+        <v>0.1608514471105877</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.203336407013197</v>
+        <v>0.6064428520953982</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0007778873747571179</v>
+        <v>0.002488162084192499</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.089820078663564</v>
+        <v>1.153182322993899</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.999698270781408</v>
+        <v>2.529362204518037</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.590933393003013</v>
+        <v>1.051290493695376</v>
       </c>
       <c r="C17">
-        <v>0.4918628678889547</v>
+        <v>0.1550678552914917</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.093776603877942</v>
+        <v>0.5814656235981346</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337215605</v>
       </c>
       <c r="G17">
-        <v>0.0007817717491409442</v>
+        <v>0.002490075557085149</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.945855553006112</v>
+        <v>1.11968164109993</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.980254606478411</v>
+        <v>2.524727399400575</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.519806545113852</v>
+        <v>1.034630212398838</v>
       </c>
       <c r="C18">
-        <v>0.4777139628957912</v>
+        <v>0.1517486566656885</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.031662000014578</v>
+        <v>0.5671201984462044</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0007840067972121227</v>
+        <v>0.002491190382809149</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.863959315413922</v>
+        <v>1.100473487680773</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.969551149570606</v>
+        <v>2.522124554901154</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.495848640097279</v>
+        <v>1.028999190406012</v>
       </c>
       <c r="C19">
-        <v>0.4729518430961548</v>
+        <v>0.1506260846296357</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.010776970901119</v>
+        <v>0.5622665726474878</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>0.0007847638332512374</v>
+        <v>0.002491570294755646</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.836378673771918</v>
+        <v>1.093980274755722</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.966006270048723</v>
+        <v>2.521254055300645</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.604158017373493</v>
+        <v>1.054378633985095</v>
       </c>
       <c r="C20">
-        <v>0.4944954064241358</v>
+        <v>0.1556827623016375</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.105343999202773</v>
+        <v>0.5841223172220964</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.6429339538360921</v>
       </c>
       <c r="G20">
-        <v>0.0007813581956254446</v>
+        <v>0.002489870391152472</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.961084881387052</v>
+        <v>1.123241564080473</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.982273935832239</v>
+        <v>2.525214256113742</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.977701386262765</v>
+        <v>1.140343194677257</v>
       </c>
       <c r="C21">
-        <v>0.5690998284460704</v>
+        <v>0.1727616327120245</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.434558862939383</v>
+        <v>0.657809782110732</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>0.0007699148734311185</v>
+        <v>0.002484328861039717</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.391568836945339</v>
+        <v>1.222283604543918</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.042929921231718</v>
+        <v>2.53927511397427</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.230298620399708</v>
+        <v>1.1970509141658</v>
       </c>
       <c r="C22">
-        <v>0.6198300088568089</v>
+        <v>0.1839925383074785</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.660043436609413</v>
+        <v>0.7061737952910221</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007624081757076197</v>
+        <v>0.002480833091832281</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.683032133785787</v>
+        <v>1.287566659635615</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.087687921665804</v>
+        <v>2.549033784657297</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.094618419703295</v>
+        <v>1.166736367112378</v>
       </c>
       <c r="C23">
-        <v>0.5925516453163766</v>
+        <v>0.177991931632846</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.538628080549316</v>
+        <v>0.6803412936074693</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307916134</v>
       </c>
       <c r="G23">
-        <v>0.0007664190964112389</v>
+        <v>0.002482687370902582</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.526437910823518</v>
+        <v>1.252672539326113</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.063286439824367</v>
+        <v>2.543772920764098</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.598176907213144</v>
+        <v>1.052982329691929</v>
       </c>
       <c r="C24">
-        <v>0.493304714812183</v>
+        <v>0.1554047446087168</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.100111684782021</v>
+        <v>0.5829211816590032</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.000781545157064822</v>
+        <v>0.00248996310064267</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.954197010460888</v>
+        <v>1.121631961602276</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.981359526394016</v>
+        <v>2.524993955896036</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.091201123993699</v>
+        <v>0.9324797658712214</v>
       </c>
       <c r="C25">
-        <v>0.3927895682431313</v>
+        <v>0.1313206520669894</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.660735049397175</v>
+        <v>0.4786220724206629</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347308</v>
       </c>
       <c r="G25">
-        <v>0.0007979075536259488</v>
+        <v>0.002498356411838946</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.37088859165749</v>
+        <v>0.9825899627442141</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.911015557647289</v>
+        <v>2.507140468040902</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_60/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8455653270691812</v>
+        <v>1.735280364276463</v>
       </c>
       <c r="C2">
-        <v>0.1138067830109435</v>
+        <v>0.3226657012255032</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4023791701608559</v>
+        <v>1.356718952140739</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002505011489310402</v>
+        <v>0.0008101470491320566</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8820971393460297</v>
+        <v>1.961942453172981</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.496012633392411</v>
+        <v>1.871159479858534</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7877540871629662</v>
+        <v>1.502008608124726</v>
       </c>
       <c r="C3">
-        <v>0.1020638087218515</v>
+        <v>0.2768731543634999</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.350993645536434</v>
+        <v>1.159172205386184</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002509821168202192</v>
+        <v>0.0008186228842142036</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8151190770491894</v>
+        <v>1.694126986437709</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.489705918029273</v>
+        <v>1.850158986557261</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.752784606274929</v>
+        <v>1.3618866705811</v>
       </c>
       <c r="C4">
-        <v>0.09491267930687286</v>
+        <v>0.249418719061083</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.31956458330896</v>
+        <v>1.041065129984403</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002512923055352573</v>
+        <v>0.0008239335064667588</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7745355552673914</v>
+        <v>1.533319210611012</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.486434989935418</v>
+        <v>1.839827851113711</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7386653712477482</v>
+        <v>1.305460679987675</v>
       </c>
       <c r="C5">
-        <v>0.09201298625087873</v>
+        <v>0.23837223053701</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3067851205023686</v>
+        <v>0.9936070056966031</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002514224638604512</v>
+        <v>0.0008261266532600592</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7581317787819728</v>
+        <v>1.468574077721314</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.485252244852759</v>
+        <v>1.836209097102511</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7363287623576866</v>
+        <v>1.296129023632432</v>
       </c>
       <c r="C6">
-        <v>0.09153235525431569</v>
+        <v>0.2365458246771226</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3046647270331277</v>
+        <v>0.9857636473359292</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002514443036758064</v>
+        <v>0.0008264926387113915</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7554160067011537</v>
+        <v>1.457867128283624</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.485064891234003</v>
+        <v>1.835642457402102</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7525936602635284</v>
+        <v>1.361123090972654</v>
       </c>
       <c r="C7">
-        <v>0.09487351506280106</v>
+        <v>0.2492692010077349</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3193921243517934</v>
+        <v>1.040422535695669</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002512940456804403</v>
+        <v>0.0008239629636529549</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.774313786595286</v>
+        <v>1.532443015218405</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.486418432351329</v>
+        <v>1.839776719937674</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8255218130685762</v>
+        <v>1.65413556983961</v>
       </c>
       <c r="C8">
-        <v>0.1097452853549328</v>
+        <v>0.3067229598612471</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3846346185082723</v>
+        <v>1.287860181870258</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002506639084071565</v>
+        <v>0.0008130488631235366</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8588896656511906</v>
+        <v>1.868764637053062</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.493712616039829</v>
+        <v>1.863352723768429</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9727847057340568</v>
+        <v>2.258850620654869</v>
       </c>
       <c r="C9">
-        <v>0.1393979721435983</v>
+        <v>0.4259413906033842</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5136616161999541</v>
+        <v>1.805157255537708</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171845327</v>
       </c>
       <c r="G9">
-        <v>0.00249545571710813</v>
+        <v>0.0007923751272543855</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.029127440218673</v>
+        <v>2.563668790680339</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.512837816352643</v>
+        <v>1.932643283273379</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.083680973970388</v>
+        <v>2.730291829719647</v>
       </c>
       <c r="C10">
-        <v>0.1615124048529708</v>
+        <v>0.5196333644928188</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6092958146404612</v>
+        <v>2.215967131283548</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>0.002487945671228384</v>
+        <v>0.0007774441466467608</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.15701323671351</v>
+        <v>3.106376833542924</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.52989962922814</v>
+        <v>2.001984594321669</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.134742391205521</v>
+        <v>2.95303134400757</v>
       </c>
       <c r="C11">
-        <v>0.1716509825061792</v>
+        <v>0.5641576863096134</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6530232989402549</v>
+        <v>2.412664076320269</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639217</v>
       </c>
       <c r="G11">
-        <v>0.002484680589460047</v>
+        <v>0.0007706574021297818</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.215833789786927</v>
+        <v>3.363118937340062</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.538330952075029</v>
+        <v>2.038715639781429</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.154168164394548</v>
+        <v>3.038805902231559</v>
       </c>
       <c r="C12">
-        <v>0.1755020196859505</v>
+        <v>0.5813502983459102</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.669616883234383</v>
+        <v>2.488885495401661</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.002483465791578658</v>
+        <v>0.0007680831547867168</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.238202622527297</v>
+        <v>3.462047692930014</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.541621246478513</v>
+        <v>2.053490299636366</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.149980451242527</v>
+        <v>3.020265080425304</v>
       </c>
       <c r="C13">
-        <v>0.1746720984668002</v>
+        <v>0.5776317379075806</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6660415580322052</v>
+        <v>2.472386731541192</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0.002483726461007427</v>
+        <v>0.0007686378441184539</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.233380846111345</v>
+        <v>3.440660600655121</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.540908265239892</v>
+        <v>2.050267694121516</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.136338749733682</v>
+        <v>2.960057942692856</v>
       </c>
       <c r="C14">
-        <v>0.1719675708616535</v>
+        <v>0.5655651010310407</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6543877463517589</v>
+        <v>2.418897959828101</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.00248458021493216</v>
+        <v>0.0007704457346161884</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.217672175895586</v>
+        <v>3.371221841646559</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.538599684798015</v>
+        <v>2.039913056680831</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.127994572590239</v>
+        <v>2.923373040762044</v>
       </c>
       <c r="C15">
-        <v>0.1703125176455558</v>
+        <v>0.5582191214780039</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6472540857301254</v>
+        <v>2.386371447057314</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.002485105975098247</v>
+        <v>0.0007715524010068921</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.208062565106104</v>
+        <v>3.328920190280144</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.537198350980418</v>
+        <v>2.033687145203089</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.080356485250036</v>
+        <v>2.715921260348523</v>
       </c>
       <c r="C16">
-        <v>0.1608514471105877</v>
+        <v>0.5167666620449438</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6064428520953982</v>
+        <v>2.203336407013168</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002488162084192499</v>
+        <v>0.0007778873746981167</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.153182322993899</v>
+        <v>3.089820078663536</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.529362204518037</v>
+        <v>1.999698270781408</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.051290493695376</v>
+        <v>2.590933393003013</v>
       </c>
       <c r="C17">
-        <v>0.1550678552914917</v>
+        <v>0.4918628678889547</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5814656235981346</v>
+        <v>2.093776603877942</v>
       </c>
       <c r="F17">
-        <v>0.6400460337215605</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.002490075557085149</v>
+        <v>0.0007817717491424316</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.11968164109993</v>
+        <v>2.94585555300614</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.524727399400575</v>
+        <v>1.980254606478411</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.034630212398838</v>
+        <v>2.519806545113966</v>
       </c>
       <c r="C18">
-        <v>0.1517486566656885</v>
+        <v>0.4777139628957343</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5671201984462044</v>
+        <v>2.031662000014549</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>0.002491190382809149</v>
+        <v>0.000784006797269833</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.100473487680773</v>
+        <v>2.863959315413837</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.522124554901154</v>
+        <v>1.969551149570634</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.028999190406012</v>
+        <v>2.495848640097336</v>
       </c>
       <c r="C19">
-        <v>0.1506260846296357</v>
+        <v>0.4729518430961264</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5622665726474878</v>
+        <v>2.010776970901077</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>0.002491570294755646</v>
+        <v>0.0007847638333644116</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.093980274755722</v>
+        <v>2.836378673771947</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.521254055300645</v>
+        <v>1.966006270048752</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.054378633985095</v>
+        <v>2.604158017373663</v>
       </c>
       <c r="C20">
-        <v>0.1556827623016375</v>
+        <v>0.4944954064243632</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.5841223172220964</v>
+        <v>2.105343999202816</v>
       </c>
       <c r="F20">
-        <v>0.6429339538360921</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002489870391152472</v>
+        <v>0.0007813581956237298</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.123241564080473</v>
+        <v>2.961084881387023</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.525214256113742</v>
+        <v>1.982273935832211</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.140343194677257</v>
+        <v>2.977701386262709</v>
       </c>
       <c r="C21">
-        <v>0.1727616327120245</v>
+        <v>0.5690998284465536</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.657809782110732</v>
+        <v>2.434558862939426</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002484328861039717</v>
+        <v>0.0007699148734328385</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.222283604543918</v>
+        <v>3.391568836945396</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.53927511397427</v>
+        <v>2.042929921231718</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.1970509141658</v>
+        <v>3.230298620399708</v>
       </c>
       <c r="C22">
-        <v>0.1839925383074785</v>
+        <v>0.6198300088570647</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7061737952910221</v>
+        <v>2.660043436609399</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031955</v>
       </c>
       <c r="G22">
-        <v>0.002480833091832281</v>
+        <v>0.0007624081759515351</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.287566659635615</v>
+        <v>3.683032133785844</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.549033784657297</v>
+        <v>2.087687921665776</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.166736367112378</v>
+        <v>3.094618419703352</v>
       </c>
       <c r="C23">
-        <v>0.177991931632846</v>
+        <v>0.5925516453165756</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.6803412936074693</v>
+        <v>2.538628080549302</v>
       </c>
       <c r="F23">
-        <v>0.7472568307916134</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.002482687370902582</v>
+        <v>0.0007664190963551327</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.252672539326113</v>
+        <v>3.526437910823461</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.543772920764098</v>
+        <v>2.063286439824367</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.052982329691929</v>
+        <v>2.598176907213087</v>
       </c>
       <c r="C24">
-        <v>0.1554047446087168</v>
+        <v>0.4933047148116998</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.5829211816590032</v>
+        <v>2.100111684781979</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.00248996310064267</v>
+        <v>0.0007815451570685043</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.121631961602276</v>
+        <v>2.954197010460859</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.524993955896036</v>
+        <v>1.981359526394073</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9324797658712214</v>
+        <v>2.091201123993699</v>
       </c>
       <c r="C25">
-        <v>0.1313206520669894</v>
+        <v>0.3927895682433302</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4786220724206629</v>
+        <v>1.660735049397232</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347308</v>
+        <v>1.757113814925077</v>
       </c>
       <c r="G25">
-        <v>0.002498356411838946</v>
+        <v>0.0007979075535096733</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9825899627442141</v>
+        <v>2.370888591657405</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.507140468040902</v>
+        <v>1.911015557647261</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_60/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.735280364276463</v>
+        <v>3.385181219391086</v>
       </c>
       <c r="C2">
-        <v>0.3226657012255032</v>
+        <v>0.5771249865938159</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.356718952140739</v>
+        <v>0.07504729898337992</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>1.281385686668628</v>
       </c>
       <c r="G2">
-        <v>0.0008101470491320566</v>
+        <v>0.7344776564968782</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.002160269676906523</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.001894000363681592</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5136220001041778</v>
       </c>
       <c r="K2">
-        <v>1.961942453172981</v>
+        <v>0.472156835651063</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.04996963035732804</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.871159479858534</v>
+        <v>0.4857519934525101</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.502008608124726</v>
+        <v>2.948946078549284</v>
       </c>
       <c r="C3">
-        <v>0.2768731543634999</v>
+        <v>0.5093018072292637</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.159172205386184</v>
+        <v>0.07008833608225729</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.199125912523073</v>
       </c>
       <c r="G3">
-        <v>0.0008186228842142036</v>
+        <v>0.6873728133701462</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.004037396023262585</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.003516229657372527</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4977122558409945</v>
       </c>
       <c r="K3">
-        <v>1.694126986437709</v>
+        <v>0.4676519167025717</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.04729295241349973</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.850158986557261</v>
+        <v>0.4290080672826804</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.3618866705811</v>
+        <v>2.681078192472967</v>
       </c>
       <c r="C4">
-        <v>0.249418719061083</v>
+        <v>0.4679230685260904</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.041065129984403</v>
+        <v>0.06704225965574295</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>1.149311582381628</v>
       </c>
       <c r="G4">
-        <v>0.0008239335064667588</v>
+        <v>0.6591409767593888</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.005530752759583979</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.004889617132353141</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.488384869377299</v>
       </c>
       <c r="K4">
-        <v>1.533319210611012</v>
+        <v>0.4652523773318258</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.04562881095127835</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.839827851113711</v>
+        <v>0.3943592416268302</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.305460679987675</v>
+        <v>2.57187740664358</v>
       </c>
       <c r="C5">
-        <v>0.23837223053701</v>
+        <v>0.4516532161565578</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.9936070056966031</v>
+        <v>0.06580593835384896</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.127906529022809</v>
       </c>
       <c r="G5">
-        <v>0.0008261266532600592</v>
+        <v>0.6464330598455206</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.006224409066003578</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.005618222757451719</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4839853649867081</v>
       </c>
       <c r="K5">
-        <v>1.468574077721314</v>
+        <v>0.4635210705545489</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.04500277227677429</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.836209097102511</v>
+        <v>0.3807169085689566</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.296129023632432</v>
+        <v>2.553727521139706</v>
       </c>
       <c r="C6">
-        <v>0.2365458246771226</v>
+        <v>0.4496127468841848</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.9857636473359292</v>
+        <v>0.0656085153669661</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.122814456813586</v>
       </c>
       <c r="G6">
-        <v>0.0008264926387113915</v>
+        <v>0.6426697474042129</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.006348859421637931</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.005848652919286046</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4824030356789848</v>
       </c>
       <c r="K6">
-        <v>1.457867128283624</v>
+        <v>0.4622141250067848</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.04496935058791252</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.835642457402102</v>
+        <v>0.3789867160255938</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.361123090972654</v>
+        <v>2.679561540081522</v>
       </c>
       <c r="C7">
-        <v>0.2492692010077349</v>
+        <v>0.4695062217798807</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.040422535695669</v>
+        <v>0.06704746982648402</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.144795337764506</v>
       </c>
       <c r="G7">
-        <v>0.0008239629636529549</v>
+        <v>0.654424450838377</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.005550882400426727</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.005165913723209847</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4859824855388979</v>
       </c>
       <c r="K7">
-        <v>1.532443015218405</v>
+        <v>0.4624313190927261</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.04581450561116007</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.839776719937674</v>
+        <v>0.3956324357455117</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.65413556983961</v>
+        <v>3.234677458867168</v>
       </c>
       <c r="C8">
-        <v>0.3067229598612471</v>
+        <v>0.5560900072036645</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.287860181870258</v>
+        <v>0.073366127422128</v>
       </c>
       <c r="F8">
-        <v>1.39074283177348</v>
+        <v>1.247273778375586</v>
       </c>
       <c r="G8">
-        <v>0.0008130488631235366</v>
+        <v>0.7120611262675283</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.002743917591875311</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.002685136459469106</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5049470827555069</v>
       </c>
       <c r="K8">
-        <v>1.868764637053062</v>
+        <v>0.466836737016358</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.04931268492551411</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.863352723768429</v>
+        <v>0.4680851111568387</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.258850620654869</v>
+        <v>4.324557136873807</v>
       </c>
       <c r="C9">
-        <v>0.4259413906033842</v>
+        <v>0.7252487817612518</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.805157255537708</v>
+        <v>0.0857662354194364</v>
       </c>
       <c r="F9">
-        <v>1.895061171845327</v>
+        <v>1.462002932721404</v>
       </c>
       <c r="G9">
-        <v>0.0007923751272543855</v>
+        <v>0.8395025790837565</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0001343913705267319</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0006705210507824688</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5501715472817494</v>
       </c>
       <c r="K9">
-        <v>2.563668790680339</v>
+        <v>0.4836579704413353</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.05565670460967809</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.932643283273379</v>
+        <v>0.6093345864846071</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.730291829719647</v>
+        <v>5.127473400779763</v>
       </c>
       <c r="C10">
-        <v>0.5196333644928188</v>
+        <v>0.8573688526836065</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.215967131283548</v>
+        <v>0.09285611353298329</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>1.593437193588656</v>
       </c>
       <c r="G10">
-        <v>0.0007774441466467608</v>
+        <v>0.9165811503843457</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0004284775478820002</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001625064045997604</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5753625247472911</v>
       </c>
       <c r="K10">
-        <v>3.106376833542924</v>
+        <v>0.4861772764663073</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.06195558912888899</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.001984594321669</v>
+        <v>0.7000086851169272</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.95303134400757</v>
+        <v>5.488672870618927</v>
       </c>
       <c r="C11">
-        <v>0.5641576863096134</v>
+        <v>0.9622818383245999</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.412664076320269</v>
+        <v>0.08014608156037184</v>
       </c>
       <c r="F11">
-        <v>2.451628164639217</v>
+        <v>1.403575232292951</v>
       </c>
       <c r="G11">
-        <v>0.0007706574021297818</v>
+        <v>0.7848682691424926</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01907799448366276</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.002683877105874366</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5023089621486605</v>
       </c>
       <c r="K11">
-        <v>3.363118937340062</v>
+        <v>0.3959698697944916</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.08427647002091021</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.038715639781429</v>
+        <v>0.614852551001988</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.038805902231559</v>
+        <v>5.623692652934267</v>
       </c>
       <c r="C12">
-        <v>0.5813502983459102</v>
+        <v>1.022193902180504</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.488885495401661</v>
+        <v>0.07145826984476145</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>1.231459359326763</v>
       </c>
       <c r="G12">
-        <v>0.0007680831547867168</v>
+        <v>0.671713789807697</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05770269208409218</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002812326741562288</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4422806685583964</v>
       </c>
       <c r="K12">
-        <v>3.462047692930014</v>
+        <v>0.3310912801928261</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1078497236836284</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.053490299636366</v>
+        <v>0.5272021755052236</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.020265080425304</v>
+        <v>5.590850176219476</v>
       </c>
       <c r="C13">
-        <v>0.5776317379075806</v>
+        <v>1.05306738388154</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.472386731541192</v>
+        <v>0.06534548618516478</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>1.05691466696436</v>
       </c>
       <c r="G13">
-        <v>0.0007686378441184539</v>
+        <v>0.5591006827920495</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1132959793300614</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.002511481033383056</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3850441989558533</v>
       </c>
       <c r="K13">
-        <v>3.440660600655121</v>
+        <v>0.2773848937685344</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1337445468956275</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.050267694121516</v>
+        <v>0.4354997906752089</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.960057942692856</v>
+        <v>5.491850344069462</v>
       </c>
       <c r="C14">
-        <v>0.5655651010310407</v>
+        <v>1.062176536699411</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.418897959828101</v>
+        <v>0.06271255528344449</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.9350754570601794</v>
       </c>
       <c r="G14">
-        <v>0.0007704457346161884</v>
+        <v>0.4811742460516655</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1625205229395448</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.002226130732078779</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3464883128877005</v>
       </c>
       <c r="K14">
-        <v>3.371221841646559</v>
+        <v>0.2455581345949511</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1536869604010462</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.039913056680831</v>
+        <v>0.3712575963739653</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.923373040762044</v>
+        <v>5.431936613529103</v>
       </c>
       <c r="C15">
-        <v>0.5582191214780039</v>
+        <v>1.058674882606425</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.386371447057314</v>
+        <v>0.06215001670486853</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.9027497636098758</v>
       </c>
       <c r="G15">
-        <v>0.0007715524010068921</v>
+        <v>0.4602857574024597</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1749834532103165</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.002197262822881463</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3366803847882949</v>
       </c>
       <c r="K15">
-        <v>3.328920190280144</v>
+        <v>0.2386746343510993</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.158389080423035</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.033687145203089</v>
+        <v>0.3545805604852035</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.715921260348523</v>
+        <v>5.091494016343404</v>
       </c>
       <c r="C16">
-        <v>0.5167666620449438</v>
+        <v>0.9948164613180381</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.203336407013168</v>
+        <v>0.06041680749579015</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.8826399167145098</v>
       </c>
       <c r="G16">
-        <v>0.0007778873746981167</v>
+        <v>0.4487411517943514</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1621072113201905</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001779615373559196</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3365089308938138</v>
       </c>
       <c r="K16">
-        <v>3.089820078663536</v>
+        <v>0.2471653113954453</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1497917562852464</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.999698270781408</v>
+        <v>0.3377342189523631</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.590933393003013</v>
+        <v>4.883730409651434</v>
       </c>
       <c r="C17">
-        <v>0.4918628678889547</v>
+        <v>0.9413227645846405</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.093776603877942</v>
+        <v>0.06016870644624062</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.9303704567051909</v>
       </c>
       <c r="G17">
-        <v>0.0007817717491424316</v>
+        <v>0.4802658688427925</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1243309507963488</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.001688731242593278</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3564364663701411</v>
       </c>
       <c r="K17">
-        <v>2.94585555300614</v>
+        <v>0.2698090850999577</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1322143589154194</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.980254606478411</v>
+        <v>0.3580037764814534</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.519806545113966</v>
+        <v>4.765654325223068</v>
       </c>
       <c r="C18">
-        <v>0.4777139628957343</v>
+        <v>0.8895974275021103</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.031662000014549</v>
+        <v>0.06291697271373398</v>
       </c>
       <c r="F18">
-        <v>2.107028586650742</v>
+        <v>1.049915436779088</v>
       </c>
       <c r="G18">
-        <v>0.000784006797269833</v>
+        <v>0.5591736269419414</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07152107914621553</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001440329949257801</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.399225059375496</v>
       </c>
       <c r="K18">
-        <v>2.863959315413837</v>
+        <v>0.3125003957108632</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1073869084417822</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.969551149570634</v>
+        <v>0.4148021231497125</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.495848640097336</v>
+        <v>4.727717180709021</v>
       </c>
       <c r="C19">
-        <v>0.4729518430961264</v>
+        <v>0.8480846678207854</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.010776970901077</v>
+        <v>0.0705061129924216</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>1.221377177779942</v>
       </c>
       <c r="G19">
-        <v>0.0007847638333644116</v>
+        <v>0.67059963791732</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02625464492570728</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001576488105722085</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4570450768492407</v>
       </c>
       <c r="K19">
-        <v>2.836378673771947</v>
+        <v>0.3709020963093614</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.08373351920197081</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.966006270048752</v>
+        <v>0.5045112296797214</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.604158017373663</v>
+        <v>4.916076549399008</v>
       </c>
       <c r="C20">
-        <v>0.4944954064243632</v>
+        <v>0.8285139432518349</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.105343999202816</v>
+        <v>0.0909574932664885</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>1.544267486167769</v>
       </c>
       <c r="G20">
-        <v>0.0007813581956237298</v>
+        <v>0.8810822908474591</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0001861067937314331</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001954796625756927</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5609383791054228</v>
       </c>
       <c r="K20">
-        <v>2.961084881387023</v>
+        <v>0.4764069166248959</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.06105094986137871</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.982273935832211</v>
+        <v>0.6800936055216056</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.977701386262709</v>
+        <v>5.53453013121441</v>
       </c>
       <c r="C21">
-        <v>0.5690998284465536</v>
+        <v>0.9227294426228809</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.434558862939426</v>
+        <v>0.09977652581849306</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>1.694625725023641</v>
       </c>
       <c r="G21">
-        <v>0.0007699148734328385</v>
+        <v>0.9749740278487877</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0009399357208319525</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.003402551524313679</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.5979738547469537</v>
       </c>
       <c r="K21">
-        <v>3.391568836945396</v>
+        <v>0.4978342416961254</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.06318199517334833</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.042929921231718</v>
+        <v>0.7730369250600688</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.230298620399708</v>
+        <v>5.939817425278363</v>
       </c>
       <c r="C22">
-        <v>0.6198300088570647</v>
+        <v>0.9848739716337889</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.660043436609399</v>
+        <v>0.1044659913906454</v>
       </c>
       <c r="F22">
-        <v>2.667416158031955</v>
+        <v>1.784874329385957</v>
       </c>
       <c r="G22">
-        <v>0.0007624081759515351</v>
+        <v>1.033773487614155</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.001978342319594262</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.004597369978852406</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.6209341628475471</v>
       </c>
       <c r="K22">
-        <v>3.683032133785844</v>
+        <v>0.5104755757033814</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.0651285588613284</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.087687921665776</v>
+        <v>0.8244227451514234</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.094618419703352</v>
+        <v>5.723507198907896</v>
       </c>
       <c r="C23">
-        <v>0.5925516453165756</v>
+        <v>0.9494121803534199</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.538628080549302</v>
+        <v>0.1019315488158163</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>1.741575534819503</v>
       </c>
       <c r="G23">
-        <v>0.0007664190963551327</v>
+        <v>1.007620387041968</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.001383290777186463</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.003627179866144026</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.6113400290636832</v>
       </c>
       <c r="K23">
-        <v>3.526437910823461</v>
+        <v>0.5068951078127242</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.06384168312129646</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.063286439824367</v>
+        <v>0.795184506842304</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.598176907213087</v>
+        <v>4.906583137420114</v>
       </c>
       <c r="C24">
-        <v>0.4933047148116998</v>
+        <v>0.8200139581786914</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.100111684781979</v>
+        <v>0.09248000629599318</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>1.572380636123484</v>
       </c>
       <c r="G24">
-        <v>0.0007815451570685043</v>
+        <v>0.902961872989934</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.13069542686673E-05</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001485208001309246</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5722236118213146</v>
       </c>
       <c r="K24">
-        <v>2.954197010460859</v>
+        <v>0.4895461885565453</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.0593217806817492</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.981359526394073</v>
+        <v>0.6880327146356251</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.091201123993699</v>
+        <v>4.02924500280551</v>
       </c>
       <c r="C25">
-        <v>0.3927895682433302</v>
+        <v>0.6824702402986986</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.660735049397232</v>
+        <v>0.08243796578919671</v>
       </c>
       <c r="F25">
-        <v>1.757113814925077</v>
+        <v>1.39550212837257</v>
       </c>
       <c r="G25">
-        <v>0.0007979075535096733</v>
+        <v>0.7960196885927218</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0005047415127921173</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001259202903101553</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5332662992424844</v>
       </c>
       <c r="K25">
-        <v>2.370888591657405</v>
+        <v>0.4737281840815299</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.05432655502058026</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.911015557647261</v>
+        <v>0.573569570751431</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_60/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.385181219391086</v>
+        <v>3.391247989865008</v>
       </c>
       <c r="C2">
-        <v>0.5771249865938159</v>
+        <v>0.6096171512812418</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.07504729898337992</v>
+        <v>0.07617296251122241</v>
       </c>
       <c r="F2">
-        <v>1.281385686668628</v>
+        <v>1.172190281245506</v>
       </c>
       <c r="G2">
-        <v>0.7344776564968782</v>
+        <v>0.5997844399599614</v>
       </c>
       <c r="H2">
-        <v>0.002160269676906523</v>
+        <v>0.001680632707921292</v>
       </c>
       <c r="I2">
-        <v>0.001894000363681592</v>
+        <v>0.001339477213647022</v>
       </c>
       <c r="J2">
-        <v>0.5136220001041778</v>
+        <v>0.4870769744728989</v>
       </c>
       <c r="K2">
-        <v>0.472156835651063</v>
+        <v>0.3929407753197367</v>
       </c>
       <c r="L2">
-        <v>0.04996963035732804</v>
+        <v>0.189656987056587</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1114134784859964</v>
       </c>
       <c r="N2">
-        <v>0.4857519934525101</v>
+        <v>0.05347944950664285</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.5286452692541417</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.948946078549284</v>
+        <v>2.954958710411574</v>
       </c>
       <c r="C3">
-        <v>0.5093018072292637</v>
+        <v>0.5336917863909605</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.07008833608225729</v>
+        <v>0.07153235408126335</v>
       </c>
       <c r="F3">
-        <v>1.199125912523073</v>
+        <v>1.105333271390464</v>
       </c>
       <c r="G3">
-        <v>0.6873728133701462</v>
+        <v>0.5695349818670223</v>
       </c>
       <c r="H3">
-        <v>0.004037396023262585</v>
+        <v>0.003210986151347406</v>
       </c>
       <c r="I3">
-        <v>0.003516229657372527</v>
+        <v>0.002411613932337797</v>
       </c>
       <c r="J3">
-        <v>0.4977122558409945</v>
+        <v>0.4744406452083325</v>
       </c>
       <c r="K3">
-        <v>0.4676519167025717</v>
+        <v>0.3959628948080578</v>
       </c>
       <c r="L3">
-        <v>0.04729295241349973</v>
+        <v>0.1946631697106973</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.109706180149761</v>
       </c>
       <c r="N3">
-        <v>0.4290080672826804</v>
+        <v>0.04938075751259419</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.4659938377308066</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.681078192472967</v>
+        <v>2.686801331265258</v>
       </c>
       <c r="C4">
-        <v>0.4679230685260904</v>
+        <v>0.4874319911966438</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06704225965574295</v>
+        <v>0.06867964281800454</v>
       </c>
       <c r="F4">
-        <v>1.149311582381628</v>
+        <v>1.064742577450275</v>
       </c>
       <c r="G4">
-        <v>0.6591409767593888</v>
+        <v>0.5515764988886929</v>
       </c>
       <c r="H4">
-        <v>0.005530752759583979</v>
+        <v>0.004438072961440831</v>
       </c>
       <c r="I4">
-        <v>0.004889617132353141</v>
+        <v>0.003366353909881603</v>
       </c>
       <c r="J4">
-        <v>0.488384869377299</v>
+        <v>0.4667284881374059</v>
       </c>
       <c r="K4">
-        <v>0.4652523773318258</v>
+        <v>0.3980511501489765</v>
       </c>
       <c r="L4">
-        <v>0.04562881095127835</v>
+        <v>0.1977423466374972</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1093564195836088</v>
       </c>
       <c r="N4">
-        <v>0.3943592416268302</v>
+        <v>0.04687229321867648</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.4277857914834158</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.57187740664358</v>
+        <v>2.57742253034769</v>
       </c>
       <c r="C5">
-        <v>0.4516532161565578</v>
+        <v>0.4691829842826678</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06580593835384896</v>
+        <v>0.0675217834764581</v>
       </c>
       <c r="F5">
-        <v>1.127906529022809</v>
+        <v>1.047196686976221</v>
       </c>
       <c r="G5">
-        <v>0.6464330598455206</v>
+        <v>0.543256563246203</v>
       </c>
       <c r="H5">
-        <v>0.006224409066003578</v>
+        <v>0.005009902144900991</v>
       </c>
       <c r="I5">
-        <v>0.005618222757451719</v>
+        <v>0.003916428439204367</v>
       </c>
       <c r="J5">
-        <v>0.4839853649867081</v>
+        <v>0.4629822546391722</v>
       </c>
       <c r="K5">
-        <v>0.4635210705545489</v>
+        <v>0.398279326844527</v>
       </c>
       <c r="L5">
-        <v>0.04500277227677429</v>
+        <v>0.1986789114245511</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1091970446900881</v>
       </c>
       <c r="N5">
-        <v>0.3807169085689566</v>
+        <v>0.04592128422714481</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.4126877461965961</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.553727521139706</v>
+        <v>2.559237232764247</v>
       </c>
       <c r="C6">
-        <v>0.4496127468841848</v>
+        <v>0.4667977671761889</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0656085153669661</v>
+        <v>0.06733724997915047</v>
       </c>
       <c r="F6">
-        <v>1.122814456813586</v>
+        <v>1.042933604601302</v>
       </c>
       <c r="G6">
-        <v>0.6426697474042129</v>
+        <v>0.5404902169561296</v>
       </c>
       <c r="H6">
-        <v>0.006348859421637931</v>
+        <v>0.005112577836463184</v>
       </c>
       <c r="I6">
-        <v>0.005848652919286046</v>
+        <v>0.004131301796189035</v>
       </c>
       <c r="J6">
-        <v>0.4824030356789848</v>
+        <v>0.4616128787826455</v>
       </c>
       <c r="K6">
-        <v>0.4622141250067848</v>
+        <v>0.3974951569527931</v>
       </c>
       <c r="L6">
-        <v>0.04496935058791252</v>
+        <v>0.198445973846173</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.108949688885744</v>
       </c>
       <c r="N6">
-        <v>0.3789867160255938</v>
+        <v>0.04584902510269018</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.4106890101615761</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.679561540081522</v>
+        <v>2.685249621947662</v>
       </c>
       <c r="C7">
-        <v>0.4695062217798807</v>
+        <v>0.4878531794003038</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06704746982648402</v>
+        <v>0.06880125960722161</v>
       </c>
       <c r="F7">
-        <v>1.144795337764506</v>
+        <v>1.058961299114017</v>
       </c>
       <c r="G7">
-        <v>0.654424450838377</v>
+        <v>0.5500416559640939</v>
       </c>
       <c r="H7">
-        <v>0.005550882400426727</v>
+        <v>0.004460237293585023</v>
       </c>
       <c r="I7">
-        <v>0.005165913723209847</v>
+        <v>0.003686020550299318</v>
       </c>
       <c r="J7">
-        <v>0.4859824855388979</v>
+        <v>0.4583822812553677</v>
       </c>
       <c r="K7">
-        <v>0.4624313190927261</v>
+        <v>0.3947756289452364</v>
       </c>
       <c r="L7">
-        <v>0.04581450561116007</v>
+        <v>0.196241883363637</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1084037695395121</v>
       </c>
       <c r="N7">
-        <v>0.3956324357455117</v>
+        <v>0.04721829223192486</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.4293811225282127</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.234677458867168</v>
+        <v>3.240670877584648</v>
       </c>
       <c r="C8">
-        <v>0.5560900072036645</v>
+        <v>0.5820499340062213</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.073366127422128</v>
+        <v>0.0749916855631767</v>
       </c>
       <c r="F8">
-        <v>1.247273778375586</v>
+        <v>1.138068014253648</v>
       </c>
       <c r="G8">
-        <v>0.7120611262675283</v>
+        <v>0.5921966917676542</v>
       </c>
       <c r="H8">
-        <v>0.002743917591875311</v>
+        <v>0.002166479744097005</v>
       </c>
       <c r="I8">
-        <v>0.002685136459469106</v>
+        <v>0.00202165332319737</v>
       </c>
       <c r="J8">
-        <v>0.5049470827555069</v>
+        <v>0.4596010703666735</v>
       </c>
       <c r="K8">
-        <v>0.466836737016358</v>
+        <v>0.387661786001253</v>
       </c>
       <c r="L8">
-        <v>0.04931268492551411</v>
+        <v>0.1886904363307131</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1086555242549885</v>
       </c>
       <c r="N8">
-        <v>0.4680851111568387</v>
+        <v>0.05281570628552856</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.5102310076446912</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.324557136873807</v>
+        <v>4.328893505944109</v>
       </c>
       <c r="C9">
-        <v>0.7252487817612518</v>
+        <v>0.7708605351741085</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0857662354194364</v>
+        <v>0.08668546441109193</v>
       </c>
       <c r="F9">
-        <v>1.462002932721404</v>
+        <v>1.310672952629517</v>
       </c>
       <c r="G9">
-        <v>0.8395025790837565</v>
+        <v>0.6785753481822496</v>
       </c>
       <c r="H9">
-        <v>0.0001343913705267319</v>
+        <v>8.38294057405875E-05</v>
       </c>
       <c r="I9">
-        <v>0.0006705210507824688</v>
+        <v>0.0008149772405445788</v>
       </c>
       <c r="J9">
-        <v>0.5501715472817494</v>
+        <v>0.4883027490835445</v>
       </c>
       <c r="K9">
-        <v>0.4836579704413353</v>
+        <v>0.3834306228371993</v>
       </c>
       <c r="L9">
-        <v>0.05565670460967809</v>
+        <v>0.177329930700477</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1172261363849216</v>
       </c>
       <c r="N9">
-        <v>0.6093345864846071</v>
+        <v>0.06297152277996787</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.6670775255511501</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.127473400779763</v>
+        <v>5.128491549218268</v>
       </c>
       <c r="C10">
-        <v>0.8573688526836065</v>
+        <v>0.910085915875527</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.09285611353298329</v>
+        <v>0.09382861102145768</v>
       </c>
       <c r="F10">
-        <v>1.593437193588656</v>
+        <v>1.404098477076687</v>
       </c>
       <c r="G10">
-        <v>0.9165811503843457</v>
+        <v>0.7446123502334245</v>
       </c>
       <c r="H10">
-        <v>0.0004284775478820002</v>
+        <v>0.0004247339666321182</v>
       </c>
       <c r="I10">
-        <v>0.001625064045997604</v>
+        <v>0.00185760057876827</v>
       </c>
       <c r="J10">
-        <v>0.5753625247472911</v>
+        <v>0.4678723796022979</v>
       </c>
       <c r="K10">
-        <v>0.4861772764663073</v>
+        <v>0.3680071727402492</v>
       </c>
       <c r="L10">
-        <v>0.06195558912888899</v>
+        <v>0.1641581242759322</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1216698609440634</v>
       </c>
       <c r="N10">
-        <v>0.7000086851169272</v>
+        <v>0.07354479889947996</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.7701753178718036</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.488672870618927</v>
+        <v>5.487929509104504</v>
       </c>
       <c r="C11">
-        <v>0.9622818383245999</v>
+        <v>0.9965962726142266</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.08014608156037184</v>
+        <v>0.08107477712648503</v>
       </c>
       <c r="F11">
-        <v>1.403575232292951</v>
+        <v>1.220839425695445</v>
       </c>
       <c r="G11">
-        <v>0.7848682691424926</v>
+        <v>0.6709808847692074</v>
       </c>
       <c r="H11">
-        <v>0.01907799448366276</v>
+        <v>0.01903986515014466</v>
       </c>
       <c r="I11">
-        <v>0.002683877105874366</v>
+        <v>0.002928407816456868</v>
       </c>
       <c r="J11">
-        <v>0.5023089621486605</v>
+        <v>0.3530441786154483</v>
       </c>
       <c r="K11">
-        <v>0.3959698697944916</v>
+        <v>0.2925965522575993</v>
       </c>
       <c r="L11">
-        <v>0.08427647002091021</v>
+        <v>0.1350120028040784</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.09577757754594884</v>
       </c>
       <c r="N11">
-        <v>0.614852551001988</v>
+        <v>0.1035535438511133</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.6792239608457322</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.623692652934267</v>
+        <v>5.622461559556939</v>
       </c>
       <c r="C12">
-        <v>1.022193902180504</v>
+        <v>1.042408111520217</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07145826984476145</v>
+        <v>0.07158945947083417</v>
       </c>
       <c r="F12">
-        <v>1.231459359326763</v>
+        <v>1.067509218013925</v>
       </c>
       <c r="G12">
-        <v>0.671713789807697</v>
+        <v>0.5947557986169585</v>
       </c>
       <c r="H12">
-        <v>0.05770269208409218</v>
+        <v>0.05766047557546017</v>
       </c>
       <c r="I12">
-        <v>0.002812326741562288</v>
+        <v>0.003024510358649479</v>
       </c>
       <c r="J12">
-        <v>0.4422806685583964</v>
+        <v>0.2925358298847129</v>
       </c>
       <c r="K12">
-        <v>0.3310912801928261</v>
+        <v>0.245479044975788</v>
       </c>
       <c r="L12">
-        <v>0.1078497236836284</v>
+        <v>0.1184376853752589</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.07755191853174992</v>
       </c>
       <c r="N12">
-        <v>0.5272021755052236</v>
+        <v>0.1316984524602205</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.5829859603301628</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.590850176219476</v>
+        <v>5.590299699265188</v>
       </c>
       <c r="C13">
-        <v>1.05306738388154</v>
+        <v>1.065344420457961</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.06534548618516478</v>
+        <v>0.06435608198742226</v>
       </c>
       <c r="F13">
-        <v>1.05691466696436</v>
+        <v>0.9248028087591251</v>
       </c>
       <c r="G13">
-        <v>0.5591006827920495</v>
+        <v>0.5021002127670613</v>
       </c>
       <c r="H13">
-        <v>0.1132959793300614</v>
+        <v>0.1132748963516406</v>
       </c>
       <c r="I13">
-        <v>0.002511481033383056</v>
+        <v>0.002760497017622043</v>
       </c>
       <c r="J13">
-        <v>0.3850441989558533</v>
+        <v>0.2663171988672488</v>
       </c>
       <c r="K13">
-        <v>0.2773848937685344</v>
+        <v>0.2134144186524694</v>
       </c>
       <c r="L13">
-        <v>0.1337445468956275</v>
+        <v>0.1081721355260132</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.0634228156306289</v>
       </c>
       <c r="N13">
-        <v>0.4354997906752089</v>
+        <v>0.1585510848470051</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.4796532678628864</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.491850344069462</v>
+        <v>5.492246344111152</v>
       </c>
       <c r="C14">
-        <v>1.062176536699411</v>
+        <v>1.071665743030451</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.06271255528344449</v>
+        <v>0.06107721345396178</v>
       </c>
       <c r="F14">
-        <v>0.9350754570601794</v>
+        <v>0.8294211852680391</v>
       </c>
       <c r="G14">
-        <v>0.4811742460516655</v>
+        <v>0.4317903324515981</v>
       </c>
       <c r="H14">
-        <v>0.1625205229395448</v>
+        <v>0.1625155631100483</v>
       </c>
       <c r="I14">
-        <v>0.002226130732078779</v>
+        <v>0.002534346273593613</v>
       </c>
       <c r="J14">
-        <v>0.3464883128877005</v>
+        <v>0.2594589618365859</v>
       </c>
       <c r="K14">
-        <v>0.2455581345949511</v>
+        <v>0.1970718929781938</v>
       </c>
       <c r="L14">
-        <v>0.1536869604010462</v>
+        <v>0.1032871697456033</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.05542159568699034</v>
       </c>
       <c r="N14">
-        <v>0.3712575963739653</v>
+        <v>0.1770220480651048</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.4064690871819039</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.431936613529103</v>
+        <v>5.432783807987846</v>
       </c>
       <c r="C15">
-        <v>1.058674882606425</v>
+        <v>1.068725209791154</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.06215001670486853</v>
+        <v>0.06042942087174119</v>
       </c>
       <c r="F15">
-        <v>0.9027497636098758</v>
+        <v>0.8057856614186889</v>
       </c>
       <c r="G15">
-        <v>0.4602857574024597</v>
+        <v>0.4107861698391702</v>
       </c>
       <c r="H15">
-        <v>0.1749834532103165</v>
+        <v>0.174982823434064</v>
       </c>
       <c r="I15">
-        <v>0.002197262822881463</v>
+        <v>0.002549273153481302</v>
       </c>
       <c r="J15">
-        <v>0.3366803847882949</v>
+        <v>0.2620152525683679</v>
       </c>
       <c r="K15">
-        <v>0.2386746343510993</v>
+        <v>0.1945803990779069</v>
       </c>
       <c r="L15">
-        <v>0.158389080423035</v>
+        <v>0.1026724338378973</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.05383447355106341</v>
       </c>
       <c r="N15">
-        <v>0.3545805604852035</v>
+        <v>0.1805802761521633</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.3871093226879196</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.091494016343404</v>
+        <v>5.094291589992224</v>
       </c>
       <c r="C16">
-        <v>0.9948164613180381</v>
+        <v>1.015271258154684</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.06041680749579015</v>
+        <v>0.05910042004685662</v>
       </c>
       <c r="F16">
-        <v>0.8826399167145098</v>
+        <v>0.8055410208081</v>
       </c>
       <c r="G16">
-        <v>0.4487411517943514</v>
+        <v>0.3831850241208627</v>
       </c>
       <c r="H16">
-        <v>0.1621072113201905</v>
+        <v>0.1620944725894589</v>
       </c>
       <c r="I16">
-        <v>0.001779615373559196</v>
+        <v>0.002192856553594247</v>
       </c>
       <c r="J16">
-        <v>0.3365089308938138</v>
+        <v>0.3042589486781466</v>
       </c>
       <c r="K16">
-        <v>0.2471653113954453</v>
+        <v>0.2091908152332493</v>
       </c>
       <c r="L16">
-        <v>0.1497917562852464</v>
+        <v>0.1085479871073147</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.05731815313995803</v>
       </c>
       <c r="N16">
-        <v>0.3377342189523631</v>
+        <v>0.1662768371232417</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.3653023914525875</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.883730409651434</v>
+        <v>4.887384543456221</v>
       </c>
       <c r="C17">
-        <v>0.9413227645846405</v>
+        <v>0.9689531295163079</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06016870644624062</v>
+        <v>0.05921191263991266</v>
       </c>
       <c r="F17">
-        <v>0.9303704567051909</v>
+        <v>0.8540269029020777</v>
       </c>
       <c r="G17">
-        <v>0.4802658688427925</v>
+        <v>0.4003467318474492</v>
       </c>
       <c r="H17">
-        <v>0.1243309507963488</v>
+        <v>0.1242893535544027</v>
       </c>
       <c r="I17">
-        <v>0.001688731242593278</v>
+        <v>0.002100848792800925</v>
       </c>
       <c r="J17">
-        <v>0.3564364663701411</v>
+        <v>0.3392237071171991</v>
       </c>
       <c r="K17">
-        <v>0.2698090850999577</v>
+        <v>0.2291041848220559</v>
       </c>
       <c r="L17">
-        <v>0.1322143589154194</v>
+        <v>0.1162014131661024</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.06380704272883264</v>
       </c>
       <c r="N17">
-        <v>0.3580037764814534</v>
+        <v>0.1462541274898612</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.3864837261113507</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.765654325223068</v>
+        <v>4.769571046573105</v>
       </c>
       <c r="C18">
-        <v>0.8895974275021103</v>
+        <v>0.925052251211838</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.06291697271373398</v>
+        <v>0.06227504932694394</v>
       </c>
       <c r="F18">
-        <v>1.049915436779088</v>
+        <v>0.9598874931231194</v>
       </c>
       <c r="G18">
-        <v>0.5591736269419414</v>
+        <v>0.4580878051932018</v>
       </c>
       <c r="H18">
-        <v>0.07152107914621553</v>
+        <v>0.07146930374076987</v>
       </c>
       <c r="I18">
-        <v>0.001440329949257801</v>
+        <v>0.001797364707551985</v>
       </c>
       <c r="J18">
-        <v>0.399225059375496</v>
+        <v>0.3813098492681348</v>
       </c>
       <c r="K18">
-        <v>0.3125003957108632</v>
+        <v>0.2608870285709095</v>
       </c>
       <c r="L18">
-        <v>0.1073869084417822</v>
+        <v>0.1282040063356735</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.07531938260125237</v>
       </c>
       <c r="N18">
-        <v>0.4148021231497125</v>
+        <v>0.1203104518642206</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.4490507547941434</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.727717180709021</v>
+        <v>4.731461951592564</v>
       </c>
       <c r="C19">
-        <v>0.8480846678207854</v>
+        <v>0.8918824895066848</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0705061129924216</v>
+        <v>0.07020716489097723</v>
       </c>
       <c r="F19">
-        <v>1.221377177779942</v>
+        <v>1.10710562883672</v>
       </c>
       <c r="G19">
-        <v>0.67059963791732</v>
+        <v>0.5417638247382115</v>
       </c>
       <c r="H19">
-        <v>0.02625464492570728</v>
+        <v>0.02622134286723821</v>
       </c>
       <c r="I19">
-        <v>0.001576488105722085</v>
+        <v>0.001965071474583802</v>
       </c>
       <c r="J19">
-        <v>0.4570450768492407</v>
+        <v>0.4283856821958096</v>
       </c>
       <c r="K19">
-        <v>0.3709020963093614</v>
+        <v>0.3017911994181652</v>
       </c>
       <c r="L19">
-        <v>0.08373351920197081</v>
+        <v>0.1434405400550673</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.09078697502593513</v>
       </c>
       <c r="N19">
-        <v>0.5045112296797214</v>
+        <v>0.09560120917213055</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.5484526658630529</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.916076549399008</v>
+        <v>4.918316184003459</v>
       </c>
       <c r="C20">
-        <v>0.8285139432518349</v>
+        <v>0.8833133223878065</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0909574932664885</v>
+        <v>0.09149313684640248</v>
       </c>
       <c r="F20">
-        <v>1.544267486167769</v>
+        <v>1.373577712402906</v>
       </c>
       <c r="G20">
-        <v>0.8810822908474591</v>
+        <v>0.7059481538245223</v>
       </c>
       <c r="H20">
-        <v>0.0001861067937314331</v>
+        <v>0.0001979582730498031</v>
       </c>
       <c r="I20">
-        <v>0.001954796625756927</v>
+        <v>0.002372377178836871</v>
       </c>
       <c r="J20">
-        <v>0.5609383791054228</v>
+        <v>0.4879432057142878</v>
       </c>
       <c r="K20">
-        <v>0.4764069166248959</v>
+        <v>0.3686421149067627</v>
       </c>
       <c r="L20">
-        <v>0.06105094986137871</v>
+        <v>0.1663548562340473</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1190211988216809</v>
       </c>
       <c r="N20">
-        <v>0.6800936055216056</v>
+        <v>0.07118096975050747</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.7451721431219482</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.53453013121441</v>
+        <v>5.532390763007186</v>
       </c>
       <c r="C21">
-        <v>0.9227294426228809</v>
+        <v>0.9628326778037035</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.09977652581849306</v>
+        <v>0.1029013468392925</v>
       </c>
       <c r="F21">
-        <v>1.694625725023641</v>
+        <v>1.452275565605973</v>
       </c>
       <c r="G21">
-        <v>0.9749740278487877</v>
+        <v>0.8315655782706557</v>
       </c>
       <c r="H21">
-        <v>0.0009399357208319525</v>
+        <v>0.0008252544554643304</v>
       </c>
       <c r="I21">
-        <v>0.003402551524313679</v>
+        <v>0.003593131647283698</v>
       </c>
       <c r="J21">
-        <v>0.5979738547469537</v>
+        <v>0.3843675943285518</v>
       </c>
       <c r="K21">
-        <v>0.4978342416961254</v>
+        <v>0.3525679369202201</v>
       </c>
       <c r="L21">
-        <v>0.06318199517334833</v>
+        <v>0.1550787524097466</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1212515028599874</v>
       </c>
       <c r="N21">
-        <v>0.7730369250600688</v>
+        <v>0.07881915512472659</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.8589460257271924</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.939817425278363</v>
+        <v>5.934197421723354</v>
       </c>
       <c r="C22">
-        <v>0.9848739716337889</v>
+        <v>1.013000025958718</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1044659913906454</v>
+        <v>0.1095821534668993</v>
       </c>
       <c r="F22">
-        <v>1.784874329385957</v>
+        <v>1.493720830226522</v>
       </c>
       <c r="G22">
-        <v>1.033773487614155</v>
+        <v>0.9190898191288994</v>
       </c>
       <c r="H22">
-        <v>0.001978342319594262</v>
+        <v>0.001670785080230219</v>
       </c>
       <c r="I22">
-        <v>0.004597369978852406</v>
+        <v>0.004406326094944291</v>
       </c>
       <c r="J22">
-        <v>0.6209341628475471</v>
+        <v>0.3197931824911393</v>
       </c>
       <c r="K22">
-        <v>0.5104755757033814</v>
+        <v>0.340153875785429</v>
       </c>
       <c r="L22">
-        <v>0.0651285588613284</v>
+        <v>0.1472815416830251</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1221785398531381</v>
       </c>
       <c r="N22">
-        <v>0.8244227451514234</v>
+        <v>0.08492135007459467</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.9240770851693014</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.723507198907896</v>
+        <v>5.719911901441719</v>
       </c>
       <c r="C23">
-        <v>0.9494121803534199</v>
+        <v>0.9870520612489315</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1019315488158163</v>
+        <v>0.1056122260101731</v>
       </c>
       <c r="F23">
-        <v>1.741575534819503</v>
+        <v>1.480525732334328</v>
       </c>
       <c r="G23">
-        <v>1.007620387041968</v>
+        <v>0.8695293047657771</v>
       </c>
       <c r="H23">
-        <v>0.001383290777186463</v>
+        <v>0.001193084095519659</v>
       </c>
       <c r="I23">
-        <v>0.003627179866144026</v>
+        <v>0.003599301577330571</v>
       </c>
       <c r="J23">
-        <v>0.6113400290636832</v>
+        <v>0.3668015235072772</v>
       </c>
       <c r="K23">
-        <v>0.5068951078127242</v>
+        <v>0.35139575688207</v>
       </c>
       <c r="L23">
-        <v>0.06384168312129646</v>
+        <v>0.1529576034130891</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1236014162243606</v>
       </c>
       <c r="N23">
-        <v>0.795184506842304</v>
+        <v>0.08087167867002165</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.8863507839259057</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.906583137420114</v>
+        <v>4.908804631044973</v>
       </c>
       <c r="C24">
-        <v>0.8200139581786914</v>
+        <v>0.8756972302411725</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.09248000629599318</v>
+        <v>0.09306022331258923</v>
       </c>
       <c r="F24">
-        <v>1.572380636123484</v>
+        <v>1.397792126645541</v>
       </c>
       <c r="G24">
-        <v>0.902961872989934</v>
+        <v>0.7225252010808703</v>
       </c>
       <c r="H24">
-        <v>8.13069542686673E-05</v>
+        <v>9.380918738255417E-05</v>
       </c>
       <c r="I24">
-        <v>0.001485208001309246</v>
+        <v>0.00180220222280969</v>
       </c>
       <c r="J24">
-        <v>0.5722236118213146</v>
+        <v>0.4977496775228758</v>
       </c>
       <c r="K24">
-        <v>0.4895461885565453</v>
+        <v>0.3782480444956846</v>
       </c>
       <c r="L24">
-        <v>0.0593217806817492</v>
+        <v>0.1699137936325812</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1226612487167671</v>
       </c>
       <c r="N24">
-        <v>0.6880327146356251</v>
+        <v>0.06895027545974841</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.7543902963385847</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.02924500280551</v>
+        <v>4.034390141679012</v>
       </c>
       <c r="C25">
-        <v>0.6824702402986986</v>
+        <v>0.7242293002912561</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.08243796578919671</v>
+        <v>0.08338412356944858</v>
       </c>
       <c r="F25">
-        <v>1.39550212837257</v>
+        <v>1.259471697229159</v>
       </c>
       <c r="G25">
-        <v>0.7960196885927218</v>
+        <v>0.6442733365782374</v>
       </c>
       <c r="H25">
-        <v>0.0005047415127921173</v>
+        <v>0.000363254878746444</v>
       </c>
       <c r="I25">
-        <v>0.001259202903101553</v>
+        <v>0.001350059491252331</v>
       </c>
       <c r="J25">
-        <v>0.5332662992424844</v>
+        <v>0.4856426054807201</v>
       </c>
       <c r="K25">
-        <v>0.4737281840815299</v>
+        <v>0.381901031324368</v>
       </c>
       <c r="L25">
-        <v>0.05432655502058026</v>
+        <v>0.1794518336906563</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1133934915347794</v>
       </c>
       <c r="N25">
-        <v>0.573569570751431</v>
+        <v>0.06049640546140012</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.6263102563334826</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
